--- a/results/tp.xlsx
+++ b/results/tp.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q101"/>
+  <dimension ref="A1:Q88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1224,7 +1224,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>3292</v>
+        <v>3291</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1250,25 +1250,25 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>797</v>
+        <v>781</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>smartno24</t>
+          <t>smartno8</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>jaz pa novo profilko</t>
+          <t>jaz imam nov obraz</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>I have a new profile picture</t>
+          <t>I have a new face</t>
         </is>
       </c>
       <c r="K12" s="2" t="n">
-        <v>43574.15972222222</v>
+        <v>43574.15902777778</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>3293</v>
+        <v>3292</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1327,25 +1327,25 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>776</v>
+        <v>797</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>smartno3</t>
+          <t>smartno24</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>ja jaz si pa skos spreminjam</t>
+          <t>jaz pa novo profilko</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Yes I am constantly changing it</t>
+          <t>I have a new profile picture</t>
         </is>
       </c>
       <c r="K13" s="2" t="n">
-        <v>43574.16041666667</v>
+        <v>43574.15972222222</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1404,21 +1404,21 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>smartno8</t>
+          <t>smartno3</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>ja jaz si pa skos spreminjam</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>Yes I am constantly changing it</t>
         </is>
       </c>
       <c r="K14" s="2" t="n">
@@ -1444,18 +1444,18 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>3295</v>
+        <v>3294</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1481,21 +1481,21 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>797</v>
+        <v>781</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>smartno24</t>
+          <t>smartno8</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>kaj j</t>
+          <t>j</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>What j</t>
+          <t>j</t>
         </is>
       </c>
       <c r="K15" s="2" t="n">
@@ -1507,7 +1507,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1516,23 +1516,23 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>O</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>3296</v>
+        <v>3295</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1558,21 +1558,21 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>776</v>
+        <v>797</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>smartno3</t>
+          <t>smartno24</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>kaj j?</t>
+          <t>kaj j</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>What j?</t>
+          <t>What j</t>
         </is>
       </c>
       <c r="K16" s="2" t="n">
@@ -1584,7 +1584,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>3297</v>
+        <v>3296</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1635,21 +1635,21 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>smartno8</t>
+          <t>smartno3</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>jaz pa novga profija</t>
+          <t>kaj j?</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t xml:space="preserve">I have a new profi </t>
+          <t>What j?</t>
         </is>
       </c>
       <c r="K17" s="2" t="n">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -1686,7 +1686,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>3298</v>
+        <v>3297</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1712,25 +1712,25 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>smartno3</t>
+          <t>smartno8</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>kdo si ti šmartno 24?</t>
+          <t>jaz pa novga profija</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Who are you šmartno 24?</t>
+          <t xml:space="preserve">I have a new profi </t>
         </is>
       </c>
       <c r="K18" s="2" t="n">
-        <v>43574.16111111111</v>
+        <v>43574.16041666667</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1747,23 +1747,23 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>IQ</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1789,21 +1789,21 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>smartno8</t>
+          <t>smartno3</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>zmotla sem se</t>
+          <t>kdo si ti šmartno 24?</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>I made a mistake</t>
+          <t>Who are you šmartno 24?</t>
         </is>
       </c>
       <c r="K19" s="2" t="n">
@@ -1824,17 +1824,17 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>IQ</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -2071,7 +2071,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>3314</v>
+        <v>3317</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2106,16 +2106,16 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>nadaljuj z branjem</t>
+          <t>kdo si</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Continue reading </t>
+          <t>Who are you</t>
         </is>
       </c>
       <c r="K23" s="2" t="n">
-        <v>43574.14583333334</v>
+        <v>43574.14861111111</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -2132,23 +2132,23 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>IQ</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>3316</v>
+        <v>3318</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2174,25 +2174,25 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>smartno24</t>
+          <t>smartno18</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>seveda bom</t>
+          <t>enako kot smartno 18</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Of course, I will</t>
+          <t>Same as smartno 18</t>
         </is>
       </c>
       <c r="K24" s="2" t="n">
-        <v>43574.14652777778</v>
+        <v>43574.15416666667</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>3317</v>
+        <v>3320</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2251,25 +2251,25 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>smartno8</t>
+          <t>smartno3</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>kdo si</t>
+          <t>hecam se</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Who are you</t>
+          <t>I am kidding</t>
         </is>
       </c>
       <c r="K25" s="2" t="n">
-        <v>43574.14861111111</v>
+        <v>43574.15555555555</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -2286,23 +2286,23 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>IQ</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>3318</v>
+        <v>3321</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2328,25 +2328,25 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>791</v>
+        <v>776</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>smartno18</t>
+          <t>smartno3</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>enako kot smartno 18</t>
+          <t>HELLO KARO P.</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Same as smartno 18</t>
+          <t xml:space="preserve">HELLO KARO P. </t>
         </is>
       </c>
       <c r="K26" s="2" t="n">
-        <v>43574.15416666667</v>
+        <v>43574.15625</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>CG</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
@@ -2379,7 +2379,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>3319</v>
+        <v>3322</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2414,16 +2414,16 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>mene niste sprejeli ali kaj?!</t>
+          <t>A STE ŽE NARDILI VSE JAZ SEM</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>You did not accept me?!</t>
+          <t xml:space="preserve">ARE YOU ALL FINISHED ALREADY I AM </t>
         </is>
       </c>
       <c r="K27" s="2" t="n">
-        <v>43574.15555555555</v>
+        <v>43574.15694444445</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -2445,18 +2445,18 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>S</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>3320</v>
+        <v>3323</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2482,25 +2482,25 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>776</v>
+        <v>791</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>smartno3</t>
+          <t>smartno18</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>hecam se</t>
+          <t>ne jaz nisem</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>I am kidding</t>
+          <t>No I am not</t>
         </is>
       </c>
       <c r="K28" s="2" t="n">
-        <v>43574.15555555555</v>
+        <v>43574.15763888889</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -2508,7 +2508,7 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2517,23 +2517,23 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
           <t>S</t>
         </is>
       </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>CO</t>
-        </is>
-      </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>3321</v>
+        <v>3324</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2568,16 +2568,16 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>HELLO KARO P.</t>
+          <t>a super ti pridem pomagat ok?</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t xml:space="preserve">HELLO KARO P. </t>
+          <t>Oh great I will come help you ok?</t>
         </is>
       </c>
       <c r="K29" s="2" t="n">
-        <v>43574.15625</v>
+        <v>43574.15763888889</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -2594,12 +2594,12 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>CG</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
@@ -2610,7 +2610,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>3322</v>
+        <v>3325</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2645,16 +2645,16 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>A STE ŽE NARDILI VSE JAZ SEM</t>
+          <t>prihajam!!!</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t xml:space="preserve">ARE YOU ALL FINISHED ALREADY I AM </t>
+          <t>I am coming!!!</t>
         </is>
       </c>
       <c r="K30" s="2" t="n">
-        <v>43574.15694444445</v>
+        <v>43574.15833333333</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -2671,23 +2671,23 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>3323</v>
+        <v>3326</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2713,25 +2713,25 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>791</v>
+        <v>781</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>smartno18</t>
+          <t>smartno8</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>ne jaz nisem</t>
+          <t>nehaj nejka</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>No I am not</t>
+          <t>Stop it Nejka</t>
         </is>
       </c>
       <c r="K31" s="2" t="n">
-        <v>43574.15763888889</v>
+        <v>43574.15902777778</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2748,23 +2748,23 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>3325</v>
+        <v>3346</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2777,38 +2777,38 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Zakaj je Replja rekla Puhanki, da ni ravno ena najpametnejših? / Why did Replja say that Puhanka is "Not one of the smartest ones"?</t>
+          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Book Club Three</t>
+          <t>Book Club Two</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>776</v>
+        <v>787</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>smartno3</t>
+          <t>smartno14</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>prihajam!!!</t>
+          <t>Šmar</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>I am coming!!!</t>
+          <t>Šmar</t>
         </is>
       </c>
       <c r="K32" s="2" t="n">
-        <v>43574.15833333333</v>
+        <v>43574.14861111111</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -2816,7 +2816,7 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>3326</v>
+        <v>3356</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2854,11 +2854,11 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Zakaj je Replja rekla Puhanki, da ni ravno ena najpametnejših? / Why did Replja say that Puhanka is "Not one of the smartest ones"?</t>
+          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2876,16 +2876,16 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>nehaj nejka</t>
+          <t>živijo</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Stop it Nejka</t>
+          <t xml:space="preserve">Hello  </t>
         </is>
       </c>
       <c r="K33" s="2" t="n">
-        <v>43574.15902777778</v>
+        <v>43574.15416666667</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>CG</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
@@ -2918,7 +2918,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>3339</v>
+        <v>3358</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2940,29 +2940,29 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Book Club Two</t>
+          <t>Book Club Three</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>smartno10</t>
+          <t>smartno8</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>hahahah dobra</t>
+          <t>hoj hoj</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t xml:space="preserve">hahahah good one </t>
+          <t>Hey hey</t>
         </is>
       </c>
       <c r="K34" s="2" t="n">
-        <v>43574.13680555556</v>
+        <v>43574.15555555555</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -2970,7 +2970,7 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>CG</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
@@ -2995,7 +2995,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>3344</v>
+        <v>3359</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -3017,29 +3017,29 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Book Club Two</t>
+          <t>Book Club Three</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>smartno14</t>
+          <t>smartno8</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>gdsjcgrgfuzegzugerzgtfzgihaeojfdaskjfioshfiudsuhfgfiuhdhfiuvhfdshbiudhigerhughtriudghfiugjsgdhsfdkjhfdghfghhkjghgkhadghfvklhghdfhgjhklghb,b!!!!!!!!!!!!!!!!!</t>
+          <t>jaz imam nov obraz</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>gibberish</t>
+          <t>I have a new face</t>
         </is>
       </c>
       <c r="K35" s="2" t="n">
-        <v>43574.14722222222</v>
+        <v>43574.15694444445</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -3061,18 +3061,18 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>3346</v>
+        <v>3364</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -3094,29 +3094,29 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Book Club Two</t>
+          <t>Book Club Four</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>smartno14</t>
+          <t>smartno6</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Šmar</t>
+          <t>ŽŽŽŽŽŽŽŽŽŽŽŽŽŽŽŽŽŽŽŽŽžiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiivvvvvvvvvvvvvvvvvvvvvviiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiijjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjooooooooooooooooooooooooooooooooooooooooo</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Šmar</t>
+          <t>Hhhhhhhhhhhhhheeeeeeeeeellllllllllllooooooooooo</t>
         </is>
       </c>
       <c r="K36" s="2" t="n">
-        <v>43574.14861111111</v>
+        <v>43574.14375</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>CG</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
@@ -3149,7 +3149,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>3347</v>
+        <v>3386</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -3162,11 +3162,11 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3175,25 +3175,25 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>smartno14</t>
+          <t>smartno10</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Šmatno6       živjoooooo     kniga</t>
+          <t>VEM!!!!HAHAHAHAH</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Šmartno6 hellooooooo book</t>
+          <t>I KNOW!!!! HAHAHAHAHAH</t>
         </is>
       </c>
       <c r="K37" s="2" t="n">
-        <v>43574.14930555555</v>
+        <v>43574.125</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3215,7 +3215,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>CG</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
@@ -3226,7 +3226,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>3350</v>
+        <v>3388</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -3239,11 +3239,11 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3252,25 +3252,25 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>778</v>
+        <v>787</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>smartno5</t>
+          <t>smartno14</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>pa kdo ste ljudje drugače pa dobre ideje</t>
+          <t>t                                                                                  uuioopošpđšđ</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Who are you people, you do have good ideas</t>
+          <t>gibberish</t>
         </is>
       </c>
       <c r="K38" s="2" t="n">
-        <v>43574.1625</v>
+        <v>43574.12708333333</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3287,23 +3287,23 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>IQ</t>
+          <t>O</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>3355</v>
+        <v>3389</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -3316,38 +3316,38 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Book Club Three</t>
+          <t>Book Club Two</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>781</v>
+        <v>794</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>smartno8</t>
+          <t>smartno21</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>dobra ideja</t>
+          <t>filip</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Good idea</t>
+          <t xml:space="preserve">Filip  </t>
         </is>
       </c>
       <c r="K39" s="2" t="n">
-        <v>43574.14652777778</v>
+        <v>43574.12847222222</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -3369,7 +3369,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>CB</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
@@ -3380,7 +3380,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>3356</v>
+        <v>3390</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -3393,38 +3393,38 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Book Club Three</t>
+          <t>Book Club Two</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>781</v>
+        <v>801</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>smartno8</t>
+          <t>MetaHojsSmartno</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>živijo</t>
+          <t>Filip prosim nadaljuj z branjem.</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hello  </t>
+          <t xml:space="preserve">Filip, please continue reading. </t>
         </is>
       </c>
       <c r="K40" s="2" t="n">
-        <v>43574.15416666667</v>
+        <v>43574.12986111111</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3446,18 +3446,18 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>CG</t>
+          <t>M</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>M</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>3357</v>
+        <v>3392</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -3470,38 +3470,34 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Book Club Three</t>
+          <t>Book Club Two</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>776</v>
+        <v>794</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>smartno3</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>ja živjo</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Yes hello</t>
-        </is>
+          <t>smartno21</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>1244</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1244</v>
       </c>
       <c r="K41" s="2" t="n">
-        <v>43574.15486111111</v>
+        <v>43574.13125</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -3509,7 +3505,7 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3523,18 +3519,18 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>CG</t>
+          <t>O</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>3358</v>
+        <v>3393</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -3547,38 +3543,34 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Book Club Three</t>
+          <t>Book Club Two</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>781</v>
+        <v>790</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>smartno8</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>hoj hoj</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>Hey hey</t>
-        </is>
+          <t>smartno17</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>9</v>
+      </c>
+      <c r="J42" t="n">
+        <v>9</v>
       </c>
       <c r="K42" s="2" t="n">
-        <v>43574.15555555555</v>
+        <v>43574.13125</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -3600,18 +3592,18 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>CG</t>
+          <t>O</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>3364</v>
+        <v>3398</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -3624,38 +3616,38 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Book Club Four</t>
+          <t>Book Club Two</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>779</v>
+        <v>794</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>smartno6</t>
+          <t>smartno21</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>ŽŽŽŽŽŽŽŽŽŽŽŽŽŽŽŽŽŽŽŽŽžiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiivvvvvvvvvvvvvvvvvvvvvviiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiijjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjooooooooooooooooooooooooooooooooooooooooo</t>
+          <t>kaj</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Hhhhhhhhhhhhhheeeeeeeeeellllllllllllooooooooooo</t>
+          <t>What</t>
         </is>
       </c>
       <c r="K43" s="2" t="n">
-        <v>43574.14375</v>
+        <v>43574.13680555556</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -3663,7 +3655,7 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3672,12 +3664,12 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>CG</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
@@ -3688,7 +3680,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>3365</v>
+        <v>3406</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -3701,38 +3693,38 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Book Club Four</t>
+          <t>Book Club Three</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>801</v>
+        <v>782</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>MetaHojsSmartno</t>
+          <t>smartno9</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Filip, nadaljuj z branjem.</t>
+          <t>kay jenaro0999zaasukgdy</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Filip, continue reading. </t>
+          <t>gibberish</t>
         </is>
       </c>
       <c r="K44" s="2" t="n">
-        <v>43574.14444444444</v>
+        <v>43574.12638888889</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -3740,7 +3732,7 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3754,18 +3746,18 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>O</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>3367</v>
+        <v>3410</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -3778,38 +3770,38 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Book Club Four</t>
+          <t>Book Club Three</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>smartno6</t>
+          <t>smartno9</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t xml:space="preserve">smartno14     pošli  mi   odgovor                                                                         </t>
+          <t>&lt;JAS SEM JAKOB</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>smartno14 send me the answer</t>
+          <t>I AM JAKOB</t>
         </is>
       </c>
       <c r="K45" s="2" t="n">
-        <v>43574.14930555555</v>
+        <v>43574.12986111111</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -3817,7 +3809,7 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3831,18 +3823,18 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>II</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>3386</v>
+        <v>3411</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -3864,29 +3856,29 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Book Club Two</t>
+          <t>Book Club Three</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>smartno10</t>
+          <t>smartno9</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>VEM!!!!HAHAHAHAH</t>
+          <t>HHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHNNNNNHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHH</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>I KNOW!!!! HAHAHAHAHAH</t>
+          <t>HIHIHIHIHIHIHIIHIHIIHIHIHIHIHIIHIHI</t>
         </is>
       </c>
       <c r="K46" s="2" t="n">
-        <v>43574.125</v>
+        <v>43574.12986111111</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -3919,7 +3911,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>3388</v>
+        <v>3413</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -3941,29 +3933,29 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Book Club Two</t>
+          <t>Book Club Three</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>smartno14</t>
+          <t>smartno9</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>t                                                                                  uuioopošpđšđ</t>
+          <t>JAS SEM UBISTV FILIP</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>gibberish</t>
+          <t>I AM ACTUALLY FILIP</t>
         </is>
       </c>
       <c r="K47" s="2" t="n">
-        <v>43574.12708333333</v>
+        <v>43574.13263888889</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -3985,18 +3977,18 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>II</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>3389</v>
+        <v>3414</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -4018,29 +4010,29 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Book Club Two</t>
+          <t>Book Club Three</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>794</v>
+        <v>782</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>smartno21</t>
+          <t>smartno9</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>filip</t>
+          <t>NEEEEE</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Filip  </t>
+          <t>NOOOOOOOOOO</t>
         </is>
       </c>
       <c r="K48" s="2" t="n">
-        <v>43574.12847222222</v>
+        <v>43574.13611111111</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -4048,7 +4040,7 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -4073,7 +4065,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>3390</v>
+        <v>3415</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -4095,29 +4087,25 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Book Club Two</t>
+          <t>Book Club Three</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>801</v>
+        <v>782</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>MetaHojsSmartno</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>Filip prosim nadaljuj z branjem.</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Filip, please continue reading. </t>
-        </is>
+          <t>smartno9</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J49" t="n">
+        <v>3.3</v>
       </c>
       <c r="K49" s="2" t="n">
-        <v>43574.12986111111</v>
+        <v>43574.13680555556</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -4125,7 +4113,7 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -4139,18 +4127,18 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>O</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>3391</v>
+        <v>3416</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -4172,29 +4160,29 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Book Club Two</t>
+          <t>Book Club Three</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>smartno14</t>
+          <t>smartno8</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Koliko si stara                    odpiši!</t>
+          <t>nehaj mi pošiljati sporočila</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>How old are you      answer me!!!</t>
+          <t>Oh you!</t>
         </is>
       </c>
       <c r="K50" s="2" t="n">
-        <v>43574.13055555556</v>
+        <v>43574.14791666667</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -4202,7 +4190,7 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -4211,7 +4199,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -4227,7 +4215,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>3392</v>
+        <v>3417</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -4249,25 +4237,29 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Book Club Two</t>
+          <t>Book Club Three</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>794</v>
+        <v>776</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>smartno21</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
-        <v>1244</v>
-      </c>
-      <c r="J51" t="n">
-        <v>1244</v>
+          <t>smartno3</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>oh ti !!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!! Kdor koli si že</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Oh you!!!!!!!!!!!!!!!! Whoever you are</t>
+        </is>
       </c>
       <c r="K51" s="2" t="n">
-        <v>43574.13125</v>
+        <v>43574.15416666667</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -4275,7 +4267,7 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4289,18 +4281,18 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>3393</v>
+        <v>3418</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -4322,34 +4314,38 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Book Club Two</t>
+          <t>Book Club Three</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>790</v>
+        <v>776</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>smartno17</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+          <t>smartno3</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>tiiiiiiiiiiii smartno 9</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Yooooouuuuuu smartno 9</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="n">
+        <v>43574.1625</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>9</v>
       </c>
-      <c r="J52" t="n">
-        <v>9</v>
-      </c>
-      <c r="K52" s="2" t="n">
-        <v>43574.13125</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>6</v>
-      </c>
       <c r="N52" t="inlineStr">
         <is>
           <t>No</t>
@@ -4362,18 +4358,18 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>3398</v>
+        <v>3420</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -4395,29 +4391,29 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Book Club Two</t>
+          <t>Book Club Three</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>smartno21</t>
+          <t>smartno24</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>kaj</t>
+          <t>zakaj</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>What</t>
+          <t xml:space="preserve">Why  </t>
         </is>
       </c>
       <c r="K53" s="2" t="n">
-        <v>43574.13680555556</v>
+        <v>43574.16388888889</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -4425,7 +4421,7 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4450,7 +4446,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>3400</v>
+        <v>3422</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -4472,29 +4468,29 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Book Club Two</t>
+          <t>Book Club Three</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>smartno5</t>
+          <t>smartno8</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>ja dobra mideja smartno21</t>
+          <t>izključ računalnik</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Yes that's a good idea smartno21</t>
+          <t>Turn off your computer</t>
         </is>
       </c>
       <c r="K54" s="2" t="n">
-        <v>43574.15972222222</v>
+        <v>43574.16458333333</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -4527,7 +4523,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>3406</v>
+        <v>3431</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -4549,25 +4545,25 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Book Club Three</t>
+          <t>Book Club Four</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>smartno9</t>
+          <t>smartno13</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>kay jenaro0999zaasukgdy</t>
+          <t>jaz se tudi strinjam z smartno 11</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>gibberish</t>
+          <t>I also agree with Smartno11</t>
         </is>
       </c>
       <c r="K55" s="2" t="n">
@@ -4593,18 +4589,18 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>3410</v>
+        <v>3433</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -4626,29 +4622,29 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Book Club Three</t>
+          <t>Book Club Four</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>smartno9</t>
+          <t>smartno11</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>&lt;JAS SEM JAKOB</t>
+          <t>okej bom probala</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>I AM JAKOB</t>
+          <t>Okay I will try</t>
         </is>
       </c>
       <c r="K56" s="2" t="n">
-        <v>43574.12986111111</v>
+        <v>43574.12777777778</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -4670,18 +4666,18 @@
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>3411</v>
+        <v>3434</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -4703,29 +4699,29 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Book Club Three</t>
+          <t>Book Club Four</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>smartno9</t>
+          <t>smartno6</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>HHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHNNNNNHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHH</t>
+          <t>ha ,ha,ha,ha!!!</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>HIHIHIHIHIHIHIIHIHIIHIHIHIHIHIIHIHI</t>
+          <t>ha ,ha,ha,ha!!!</t>
         </is>
       </c>
       <c r="K57" s="2" t="n">
-        <v>43574.12986111111</v>
+        <v>43574.12916666667</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -4758,7 +4754,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>3413</v>
+        <v>3435</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -4780,29 +4776,29 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Book Club Three</t>
+          <t>Book Club Four</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>smartno9</t>
+          <t>smartno6</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>JAS SEM UBISTV FILIP</t>
+          <t>bu    huuuuuuuuuuu       uuuuuuuuuuuuuuuuuuuu</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>I AM ACTUALLY FILIP</t>
+          <t>bu    huuuuuuuuuuu       uuuuuuuuuuuuuuuuuuuu</t>
         </is>
       </c>
       <c r="K58" s="2" t="n">
-        <v>43574.13263888889</v>
+        <v>43574.13055555556</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -4824,18 +4820,18 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>O</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>3414</v>
+        <v>3438</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -4857,29 +4853,29 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Book Club Three</t>
+          <t>Book Club Four</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>smartno9</t>
+          <t>smartno6</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>NEEEEE</t>
+          <t>NEHI  MI   &lt;&lt;ODPISATI</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>NOOOOOOOOOO</t>
+          <t>STOP WRITING BACK</t>
         </is>
       </c>
       <c r="K59" s="2" t="n">
-        <v>43574.13611111111</v>
+        <v>43574.13194444445</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -4887,7 +4883,7 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4912,7 +4908,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>3415</v>
+        <v>3439</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -4934,25 +4930,29 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Book Club Three</t>
+          <t>Book Club Four</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>smartno9</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J60" t="n">
-        <v>3.3</v>
+          <t>smartno6</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>bom</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>I will</t>
+        </is>
       </c>
       <c r="K60" s="2" t="n">
-        <v>43574.13680555556</v>
+        <v>43574.13263888889</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -4960,7 +4960,7 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4974,18 +4974,18 @@
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>3416</v>
+        <v>3443</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -4994,42 +4994,42 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Smartno</t>
+          <t>smartnoB</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+          <t>Kako bi Kekec na drugačen način prišel do zdravila?</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Book Club Three</t>
+          <t>Book Club Two</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>781</v>
+        <v>824</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>smartno8</t>
+          <t>smartnoB20</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>nehaj mi pošiljati sporočila</t>
+          <t>HEJ NANA</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Oh you!</t>
+          <t>HEY NANA  (girl's name)</t>
         </is>
       </c>
       <c r="K61" s="2" t="n">
-        <v>43574.14791666667</v>
+        <v>43581.1533449074</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>CG</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
@@ -5062,7 +5062,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>3417</v>
+        <v>3444</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -5071,42 +5071,42 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Smartno</t>
+          <t>smartnoB</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+          <t>Kako bi Kekec na drugačen način prišel do zdravila?</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Book Club Three</t>
+          <t>Book Club Two</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>776</v>
+        <v>824</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>smartno3</t>
+          <t>smartnoB20</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>oh ti !!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!! Kdor koli si že</t>
+          <t>EEE</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Oh you!!!!!!!!!!!!!!!! Whoever you are</t>
+          <t>EEE</t>
         </is>
       </c>
       <c r="K62" s="2" t="n">
-        <v>43574.15416666667</v>
+        <v>43581.15539351852</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -5128,18 +5128,18 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>O</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>3418</v>
+        <v>3446</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -5148,42 +5148,42 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Smartno</t>
+          <t>smartnoB</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+          <t>Kako bi Kekec na drugačen način prišel do zdravila?</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Book Club Three</t>
+          <t>Book Club Four</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>776</v>
+        <v>811</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>smartno3</t>
+          <t>smartnoB7</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>tiiiiiiiiiiii smartno 9</t>
+          <t>Tako</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Yooooouuuuuu smartno 9</t>
+          <t xml:space="preserve">There you go </t>
         </is>
       </c>
       <c r="K63" s="2" t="n">
-        <v>43574.1625</v>
+        <v>43581.15576388889</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -5191,7 +5191,7 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>3420</v>
+        <v>3454</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -5225,42 +5225,42 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Smartno</t>
+          <t>smartnoB</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+          <t>Zakaj je Replja rekla Puhanki, da ni ravno ena najpametnejših? / Why did Replja say that Puhanka is "Not one of the smartest ones"?</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Book Club Three</t>
+          <t>Book Club One</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>797</v>
+        <v>816</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>smartno24</t>
+          <t>smartnoB12</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>zakaj</t>
+          <t>kdo ste</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Why  </t>
+          <t>Who are you</t>
         </is>
       </c>
       <c r="K64" s="2" t="n">
-        <v>43574.16388888889</v>
+        <v>43581.16278935185</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -5268,7 +5268,7 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -5282,18 +5282,18 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>IQ</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>3421</v>
+        <v>3457</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -5302,42 +5302,42 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Smartno</t>
+          <t>smartnoB</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+          <t>Zakaj je Replja rekla Puhanki, da ni ravno ena najpametnejših? / Why did Replja say that Puhanka is "Not one of the smartest ones"?</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Book Club Three</t>
+          <t>Book Club Two</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>781</v>
+        <v>824</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>smartno8</t>
+          <t>smartnoB20</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>ker sem pač profi</t>
+          <t>ha,ha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Because I am a pro</t>
+          <t xml:space="preserve">ha, ha. </t>
         </is>
       </c>
       <c r="K65" s="2" t="n">
-        <v>43574.16458333333</v>
+        <v>43581.14582175926</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -5345,7 +5345,7 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5354,7 +5354,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
@@ -5370,7 +5370,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>3422</v>
+        <v>3458</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -5379,42 +5379,42 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Smartno</t>
+          <t>smartnoB</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+          <t>Zakaj je Replja rekla Puhanki, da ni ravno ena najpametnejših? / Why did Replja say that Puhanka is "Not one of the smartest ones"?</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Book Club Three</t>
+          <t>Book Club Two</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>781</v>
+        <v>813</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>smartno8</t>
+          <t>smartnoB9</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>izključ računalnik</t>
+          <t>NE POVEM.</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Turn off your computer</t>
+          <t>I AM NOT TELLING</t>
         </is>
       </c>
       <c r="K66" s="2" t="n">
-        <v>43574.16458333333</v>
+        <v>43581.1466087963</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>3428</v>
+        <v>3459</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -5456,42 +5456,42 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Smartno</t>
+          <t>smartnoB</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+          <t>Zakaj je Replja rekla Puhanki, da ni ravno ena najpametnejših? / Why did Replja say that Puhanka is "Not one of the smartest ones"?</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Book Club Four</t>
+          <t>Book Club Two</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>792</v>
+        <v>824</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>smartno19</t>
+          <t>smartnoB20</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>da se strinjam s smartno11</t>
+          <t>OMG</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Yes I agree with you Smartno11</t>
+          <t>OMG</t>
         </is>
       </c>
       <c r="K67" s="2" t="n">
-        <v>43574.125</v>
+        <v>43581.14663194444</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -5499,7 +5499,7 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>3431</v>
+        <v>3466</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -5533,15 +5533,15 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Smartno</t>
+          <t>smartnoB</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+          <t>Zakaj je Replja rekla Puhanki, da ni ravno ena najpametnejših? / Why did Replja say that Puhanka is "Not one of the smartest ones"?</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -5550,25 +5550,25 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>786</v>
+        <v>822</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>smartno13</t>
+          <t>smartnoB18</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>jaz se tudi strinjam z smartno 11</t>
+          <t>pp</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>I also agree with Smartno11</t>
+          <t>pp</t>
         </is>
       </c>
       <c r="K68" s="2" t="n">
-        <v>43574.12638888889</v>
+        <v>43581.14559027777</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5590,18 +5590,18 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>O</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>3433</v>
+        <v>3467</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -5610,15 +5610,15 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Smartno</t>
+          <t>smartnoB</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+          <t>Zakaj je Replja rekla Puhanki, da ni ravno ena najpametnejših? / Why did Replja say that Puhanka is "Not one of the smartest ones"?</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -5627,25 +5627,25 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>784</v>
+        <v>814</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>smartno11</t>
+          <t>smartnoB10</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>okej bom probala</t>
+          <t>Ne povem.</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Okay I will try</t>
+          <t>I am not telling</t>
         </is>
       </c>
       <c r="K69" s="2" t="n">
-        <v>43574.12777777778</v>
+        <v>43581.14689814814</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>3434</v>
+        <v>3478</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -5687,42 +5687,42 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Smartno</t>
+          <t>smartnoB</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Book Club Four</t>
+          <t>Book Club One</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>779</v>
+        <v>823</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>smartno6</t>
+          <t>smartnoB19</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>ha ,ha,ha,ha!!!</t>
+          <t>AMPAK POTEM SI UMAZAN</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>ha ,ha,ha,ha!!!</t>
+          <t>BUT THEN YOU'D BE DIRTY</t>
         </is>
       </c>
       <c r="K70" s="2" t="n">
-        <v>43574.12916666667</v>
+        <v>43581.1424537037</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5744,18 +5744,18 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>DAA</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>3435</v>
+        <v>3488</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -5764,42 +5764,42 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Smartno</t>
+          <t>smartnoB</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Book Club Four</t>
+          <t>Book Club Three</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>779</v>
+        <v>826</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>smartno6</t>
+          <t>smartnoB22</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>bu    huuuuuuuuuuu       uuuuuuuuuuuuuuuuuuuu</t>
+          <t>kdo si ti</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>bu    huuuuuuuuuuu       uuuuuuuuuuuuuuuuuuuu</t>
+          <t>Who are you</t>
         </is>
       </c>
       <c r="K71" s="2" t="n">
-        <v>43574.13055555556</v>
+        <v>43581.14258101852</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5816,23 +5816,23 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>IQ</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>3436</v>
+        <v>3489</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -5841,42 +5841,42 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Smartno</t>
+          <t>smartnoB</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Book Club Four</t>
+          <t>Book Club Three</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>801</v>
+        <v>818</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>MetaHojsSmartno</t>
+          <t>smartnoB14</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Šmartno 6, prosim nadaljuj z branjem zgodbe.</t>
+          <t>Kdo si ti</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Šmartno 6, please continue reading the story</t>
+          <t>Who are you</t>
         </is>
       </c>
       <c r="K72" s="2" t="n">
-        <v>43574.13055555556</v>
+        <v>43581.15225694444</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5893,23 +5893,23 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>IQ</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>3438</v>
+        <v>3490</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -5918,42 +5918,42 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Smartno</t>
+          <t>smartnoB</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Book Club Four</t>
+          <t>Book Club Three</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>779</v>
+        <v>818</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>smartno6</t>
+          <t>smartnoB14</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>NEHI  MI   &lt;&lt;ODPISATI</t>
+          <t>ena punca</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>STOP WRITING BACK</t>
+          <t>I am a girl</t>
         </is>
       </c>
       <c r="K73" s="2" t="n">
-        <v>43574.13194444445</v>
+        <v>43581.15503472222</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5970,23 +5970,23 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>A</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>IA</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>3443</v>
+        <v>3497</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -5999,38 +5999,38 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Kako bi Kekec na drugačen način prišel do zdravila?</t>
+          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Book Club Two</t>
+          <t>Book Club Four</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>824</v>
+        <v>835</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>smartnoB20</t>
+          <t>LaraHodejSmartnoB</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>HEJ NANA</t>
+          <t>Odlične ideje!</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>HEY NANA  (girl's name)</t>
+          <t>Excellent ideas!</t>
         </is>
       </c>
       <c r="K74" s="2" t="n">
-        <v>43581.1533449074</v>
+        <v>43581.13016203704</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -6052,18 +6052,18 @@
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>CG</t>
+          <t>ME</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>M</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>3444</v>
+        <v>3498</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -6076,38 +6076,38 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Kako bi Kekec na drugačen način prišel do zdravila?</t>
+          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Book Club Two</t>
+          <t>Book Club Four</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>smartnoB20</t>
+          <t>smartnoB18</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>EEE</t>
+          <t>kdo si</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>EEE</t>
+          <t xml:space="preserve">Who are you </t>
         </is>
       </c>
       <c r="K75" s="2" t="n">
-        <v>43581.15539351852</v>
+        <v>43581.13756944444</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -6124,23 +6124,23 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>IQ</t>
         </is>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>3446</v>
+        <v>3499</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -6153,47 +6153,47 @@
         </is>
       </c>
       <c r="D76" t="n">
+        <v>7</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Book Club Four</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>827</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>smartnoB23</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>smartnoB23</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>SmartnoB23</t>
+        </is>
+      </c>
+      <c r="K76" s="2" t="n">
+        <v>43581.14811342592</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>5</v>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Kako bi Kekec na drugačen način prišel do zdravila?</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Book Club Four</t>
-        </is>
-      </c>
-      <c r="G76" t="n">
-        <v>811</v>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>smartnoB7</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>Tako</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t xml:space="preserve">There you go </t>
-        </is>
-      </c>
-      <c r="K76" s="2" t="n">
-        <v>43581.15576388889</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>14</v>
-      </c>
       <c r="N76" t="inlineStr">
         <is>
           <t>No</t>
@@ -6201,23 +6201,23 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>A</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>IA</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>3454</v>
+        <v>3503</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -6230,11 +6230,11 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Zakaj je Replja rekla Puhanki, da ni ravno ena najpametnejših? / Why did Replja say that Puhanka is "Not one of the smartest ones"?</t>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -6252,16 +6252,16 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>kdo ste</t>
+          <t>Ares</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Who are you</t>
+          <t xml:space="preserve">Oh really </t>
         </is>
       </c>
       <c r="K77" s="2" t="n">
-        <v>43581.16278935185</v>
+        <v>43581.12109953703</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -6278,23 +6278,23 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>IQ</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>3457</v>
+        <v>3504</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -6307,47 +6307,47 @@
         </is>
       </c>
       <c r="D78" t="n">
+        <v>8</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Book Club One</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>816</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>smartnoB12</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Ali si punca jaz sem</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Are you a girl I am</t>
+        </is>
+      </c>
+      <c r="K78" s="2" t="n">
+        <v>43581.12274305556</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>6</v>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>Zakaj je Replja rekla Puhanki, da ni ravno ena najpametnejših? / Why did Replja say that Puhanka is "Not one of the smartest ones"?</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Book Club Two</t>
-        </is>
-      </c>
-      <c r="G78" t="n">
-        <v>824</v>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>smartnoB20</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>ha,ha</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ha, ha. </t>
-        </is>
-      </c>
-      <c r="K78" s="2" t="n">
-        <v>43581.14582175926</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>12</v>
-      </c>
       <c r="N78" t="inlineStr">
         <is>
           <t>No</t>
@@ -6355,7 +6355,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
@@ -6371,7 +6371,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>3458</v>
+        <v>3511</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -6384,46 +6384,46 @@
         </is>
       </c>
       <c r="D79" t="n">
+        <v>8</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Book Club One</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>823</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>smartnoB19</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Hvala</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thank you  </t>
+        </is>
+      </c>
+      <c r="K79" s="2" t="n">
+        <v>43581.13268518518</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>6</v>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Zakaj je Replja rekla Puhanki, da ni ravno ena najpametnejših? / Why did Replja say that Puhanka is "Not one of the smartest ones"?</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Book Club Two</t>
-        </is>
-      </c>
-      <c r="G79" t="n">
-        <v>813</v>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>smartnoB9</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>NE POVEM.</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>I AM NOT TELLING</t>
-        </is>
-      </c>
-      <c r="K79" s="2" t="n">
-        <v>43581.1466087963</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>13</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>3459</v>
+        <v>3513</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -6461,47 +6461,47 @@
         </is>
       </c>
       <c r="D80" t="n">
+        <v>8</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Book Club One</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>823</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>smartnoB19</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Arnes ali si fant ali punca</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Oh really are you a boy or a girl</t>
+        </is>
+      </c>
+      <c r="K80" s="2" t="n">
+        <v>43581.13376157408</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>6</v>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Zakaj je Replja rekla Puhanki, da ni ravno ena najpametnejših? / Why did Replja say that Puhanka is "Not one of the smartest ones"?</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Book Club Two</t>
-        </is>
-      </c>
-      <c r="G80" t="n">
-        <v>824</v>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>smartnoB20</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>OMG</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>OMG</t>
-        </is>
-      </c>
-      <c r="K80" s="2" t="n">
-        <v>43581.14663194444</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>14</v>
-      </c>
       <c r="N80" t="inlineStr">
         <is>
           <t>No</t>
@@ -6509,7 +6509,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
@@ -6525,7 +6525,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>3466</v>
+        <v>3519</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -6538,47 +6538,47 @@
         </is>
       </c>
       <c r="D81" t="n">
+        <v>8</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Book Club Two</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>824</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>smartnoB20</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>filip</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Filip </t>
+        </is>
+      </c>
+      <c r="K81" s="2" t="n">
+        <v>43581.12278935185</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>6</v>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Zakaj je Replja rekla Puhanki, da ni ravno ena najpametnejših? / Why did Replja say that Puhanka is "Not one of the smartest ones"?</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Book Club Four</t>
-        </is>
-      </c>
-      <c r="G81" t="n">
-        <v>822</v>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>smartnoB18</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>pp</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>pp</t>
-        </is>
-      </c>
-      <c r="K81" s="2" t="n">
-        <v>43581.14559027777</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>10</v>
-      </c>
       <c r="N81" t="inlineStr">
         <is>
           <t>No</t>
@@ -6591,18 +6591,18 @@
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>3467</v>
+        <v>3524</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -6615,46 +6615,46 @@
         </is>
       </c>
       <c r="D82" t="n">
+        <v>8</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Book Club Two</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>825</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>smartnoB21</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>ha ha</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ha ha </t>
+        </is>
+      </c>
+      <c r="K82" s="2" t="n">
+        <v>43593.56542824074</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>6</v>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>Zakaj je Replja rekla Puhanki, da ni ravno ena najpametnejših? / Why did Replja say that Puhanka is "Not one of the smartest ones"?</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Book Club Four</t>
-        </is>
-      </c>
-      <c r="G82" t="n">
-        <v>814</v>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>smartnoB10</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>Ne povem.</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>I am not telling</t>
-        </is>
-      </c>
-      <c r="K82" s="2" t="n">
-        <v>43581.14689814814</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>16</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6679,7 +6679,7 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>3478</v>
+        <v>3530</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -6692,38 +6692,38 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Book Club One</t>
+          <t>Book Club Four</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>smartnoB19</t>
+          <t>smartnoB18</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>AMPAK POTEM SI UMAZAN</t>
+          <t>kdo si ti</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>BUT THEN YOU'D BE DIRTY</t>
+          <t>Who are you</t>
         </is>
       </c>
       <c r="K83" s="2" t="n">
-        <v>43581.1424537037</v>
+        <v>43581.1207175926</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6740,23 +6740,23 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>DAA</t>
+          <t>IQ</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>3488</v>
+        <v>3531</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -6769,38 +6769,38 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Book Club Three</t>
+          <t>Book Club Four</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>826</v>
+        <v>811</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>smartnoB22</t>
+          <t>smartnoB7</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>kdo si ti</t>
+          <t>Jaz sem smartnoB7</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Who are you</t>
+          <t>I am smartnoB7</t>
         </is>
       </c>
       <c r="K84" s="2" t="n">
-        <v>43581.14258101852</v>
+        <v>43581.12131944444</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6817,12 +6817,12 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>A</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>IQ</t>
+          <t>IA</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr">
@@ -6833,7 +6833,7 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>3489</v>
+        <v>3532</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -6846,38 +6846,38 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Book Club Three</t>
+          <t>Book Club Four</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>smartnoB14</t>
+          <t>smartnoB18</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Kdo si ti</t>
+          <t>lllllllll</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Who are you</t>
+          <t>IIIIIIIII</t>
         </is>
       </c>
       <c r="K85" s="2" t="n">
-        <v>43581.15225694444</v>
+        <v>43581.12248842593</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6894,23 +6894,23 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>IQ</t>
+          <t>O</t>
         </is>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>3498</v>
+        <v>3536</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -6923,11 +6923,11 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -6936,25 +6936,25 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>smartnoB18</t>
+          <t>smartnoB23</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>kdo si</t>
+          <t>jaz sem smartnoB23</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t xml:space="preserve">Who are you </t>
+          <t>I am SmartnoB23</t>
         </is>
       </c>
       <c r="K86" s="2" t="n">
-        <v>43581.13756944444</v>
+        <v>43581.13034722222</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6971,12 +6971,12 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>IQ</t>
+          <t>II</t>
         </is>
       </c>
       <c r="Q86" t="inlineStr">
@@ -6987,7 +6987,7 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>3499</v>
+        <v>3538</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -7000,11 +7000,11 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -7013,25 +7013,25 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>827</v>
+        <v>814</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>smartnoB23</t>
+          <t>smartnoB10</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>smartnoB23</t>
+          <t>a</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>SmartnoB23</t>
+          <t>a</t>
         </is>
       </c>
       <c r="K87" s="2" t="n">
-        <v>43581.14811342592</v>
+        <v>43581.13325231482</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -7048,23 +7048,23 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>IA</t>
+          <t>O</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>3503</v>
+        <v>3539</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -7086,29 +7086,29 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Book Club One</t>
+          <t>Book Club Four</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>smartnoB12</t>
+          <t>smartnoB10</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Ares</t>
+          <t>a</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oh really </t>
+          <t>a</t>
         </is>
       </c>
       <c r="K88" s="2" t="n">
-        <v>43581.12109953703</v>
+        <v>43581.13332175926</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -7130,1011 +7130,10 @@
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>O</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>3504</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>OŠ Šmartno pod Šmarno goro</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>smartnoB</t>
-        </is>
-      </c>
-      <c r="D89" t="n">
-        <v>8</v>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Book Club One</t>
-        </is>
-      </c>
-      <c r="G89" t="n">
-        <v>816</v>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>smartnoB12</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>Ali si punca jaz sem</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>Are you a girl I am</t>
-        </is>
-      </c>
-      <c r="K89" s="2" t="n">
-        <v>43581.12274305556</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>6</v>
-      </c>
-      <c r="N89" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O89" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="P89" t="inlineStr">
-        <is>
-          <t>CO</t>
-        </is>
-      </c>
-      <c r="Q89" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>3510</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>OŠ Šmartno pod Šmarno goro</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>smartnoB</t>
-        </is>
-      </c>
-      <c r="D90" t="n">
-        <v>8</v>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Book Club One</t>
-        </is>
-      </c>
-      <c r="G90" t="n">
-        <v>835</v>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>LaraHodejSmartnoB</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>Odlična ideja, Smartno B19, prosim nadaljuj z branjem.</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>Excellent idea, SmartnoB19, please continue reading</t>
-        </is>
-      </c>
-      <c r="K90" s="2" t="n">
-        <v>43581.13214120371</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="P90" t="inlineStr">
-        <is>
-          <t>ME</t>
-        </is>
-      </c>
-      <c r="Q90" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>3511</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>OŠ Šmartno pod Šmarno goro</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>smartnoB</t>
-        </is>
-      </c>
-      <c r="D91" t="n">
-        <v>8</v>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Book Club One</t>
-        </is>
-      </c>
-      <c r="G91" t="n">
-        <v>823</v>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>smartnoB19</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>Hvala</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Thank you  </t>
-        </is>
-      </c>
-      <c r="K91" s="2" t="n">
-        <v>43581.13268518518</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>6</v>
-      </c>
-      <c r="N91" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="P91" t="inlineStr">
-        <is>
-          <t>CO</t>
-        </is>
-      </c>
-      <c r="Q91" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>3513</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>OŠ Šmartno pod Šmarno goro</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>smartnoB</t>
-        </is>
-      </c>
-      <c r="D92" t="n">
-        <v>8</v>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Book Club One</t>
-        </is>
-      </c>
-      <c r="G92" t="n">
-        <v>823</v>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>smartnoB19</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>Arnes ali si fant ali punca</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>Oh really are you a boy or a girl</t>
-        </is>
-      </c>
-      <c r="K92" s="2" t="n">
-        <v>43581.13376157408</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>6</v>
-      </c>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="P92" t="inlineStr">
-        <is>
-          <t>CO</t>
-        </is>
-      </c>
-      <c r="Q92" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>3519</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>OŠ Šmartno pod Šmarno goro</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>smartnoB</t>
-        </is>
-      </c>
-      <c r="D93" t="n">
-        <v>8</v>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Book Club Two</t>
-        </is>
-      </c>
-      <c r="G93" t="n">
-        <v>824</v>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>smartnoB20</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>filip</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Filip </t>
-        </is>
-      </c>
-      <c r="K93" s="2" t="n">
-        <v>43581.12278935185</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>6</v>
-      </c>
-      <c r="N93" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="P93" t="inlineStr">
-        <is>
-          <t>CO</t>
-        </is>
-      </c>
-      <c r="Q93" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>3524</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>OŠ Šmartno pod Šmarno goro</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>smartnoB</t>
-        </is>
-      </c>
-      <c r="D94" t="n">
-        <v>8</v>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Book Club Two</t>
-        </is>
-      </c>
-      <c r="G94" t="n">
-        <v>825</v>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>smartnoB21</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>ha ha</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ha ha </t>
-        </is>
-      </c>
-      <c r="K94" s="2" t="n">
-        <v>43593.56542824074</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>6</v>
-      </c>
-      <c r="N94" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O94" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="P94" t="inlineStr">
-        <is>
-          <t>CO</t>
-        </is>
-      </c>
-      <c r="Q94" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>3526</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>OŠ Šmartno pod Šmarno goro</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>smartnoB</t>
-        </is>
-      </c>
-      <c r="D95" t="n">
-        <v>8</v>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Book Club Three</t>
-        </is>
-      </c>
-      <c r="G95" t="n">
-        <v>826</v>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>smartnoB22</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>pri kateri zgodbi si</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>At what story are you?</t>
-        </is>
-      </c>
-      <c r="K95" s="2" t="n">
-        <v>43581.12908564815</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>6</v>
-      </c>
-      <c r="N95" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O95" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="P95" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="Q95" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>3530</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>OŠ Šmartno pod Šmarno goro</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>smartnoB</t>
-        </is>
-      </c>
-      <c r="D96" t="n">
-        <v>8</v>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Book Club Four</t>
-        </is>
-      </c>
-      <c r="G96" t="n">
-        <v>822</v>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>smartnoB18</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>kdo si ti</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>Who are you</t>
-        </is>
-      </c>
-      <c r="K96" s="2" t="n">
-        <v>43581.1207175926</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>6</v>
-      </c>
-      <c r="N96" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O96" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="P96" t="inlineStr">
-        <is>
-          <t>IQ</t>
-        </is>
-      </c>
-      <c r="Q96" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>3531</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>OŠ Šmartno pod Šmarno goro</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>smartnoB</t>
-        </is>
-      </c>
-      <c r="D97" t="n">
-        <v>8</v>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Book Club Four</t>
-        </is>
-      </c>
-      <c r="G97" t="n">
-        <v>811</v>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>smartnoB7</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>Jaz sem smartnoB7</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>I am smartnoB7</t>
-        </is>
-      </c>
-      <c r="K97" s="2" t="n">
-        <v>43581.12131944444</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>9</v>
-      </c>
-      <c r="N97" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O97" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="P97" t="inlineStr">
-        <is>
-          <t>IA</t>
-        </is>
-      </c>
-      <c r="Q97" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>3532</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>OŠ Šmartno pod Šmarno goro</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>smartnoB</t>
-        </is>
-      </c>
-      <c r="D98" t="n">
-        <v>8</v>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Book Club Four</t>
-        </is>
-      </c>
-      <c r="G98" t="n">
-        <v>822</v>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>smartnoB18</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>lllllllll</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>IIIIIIIII</t>
-        </is>
-      </c>
-      <c r="K98" s="2" t="n">
-        <v>43581.12248842593</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>6</v>
-      </c>
-      <c r="N98" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O98" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="P98" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="Q98" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>3536</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>OŠ Šmartno pod Šmarno goro</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>smartnoB</t>
-        </is>
-      </c>
-      <c r="D99" t="n">
-        <v>8</v>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Book Club Four</t>
-        </is>
-      </c>
-      <c r="G99" t="n">
-        <v>827</v>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>smartnoB23</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>jaz sem smartnoB23</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>I am SmartnoB23</t>
-        </is>
-      </c>
-      <c r="K99" s="2" t="n">
-        <v>43581.13034722222</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>6</v>
-      </c>
-      <c r="N99" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O99" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="P99" t="inlineStr">
-        <is>
-          <t>II</t>
-        </is>
-      </c>
-      <c r="Q99" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>3538</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>OŠ Šmartno pod Šmarno goro</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>smartnoB</t>
-        </is>
-      </c>
-      <c r="D100" t="n">
-        <v>8</v>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Book Club Four</t>
-        </is>
-      </c>
-      <c r="G100" t="n">
-        <v>814</v>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>smartnoB10</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="K100" s="2" t="n">
-        <v>43581.13325231482</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>9</v>
-      </c>
-      <c r="N100" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O100" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="P100" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="Q100" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>3539</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>OŠ Šmartno pod Šmarno goro</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>smartnoB</t>
-        </is>
-      </c>
-      <c r="D101" t="n">
-        <v>8</v>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Book Club Four</t>
-        </is>
-      </c>
-      <c r="G101" t="n">
-        <v>814</v>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>smartnoB10</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="K101" s="2" t="n">
-        <v>43581.13332175926</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>9</v>
-      </c>
-      <c r="N101" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O101" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="P101" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="Q101" t="inlineStr">
         <is>
           <t>O</t>
         </is>

--- a/results/tp.xlsx
+++ b/results/tp.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q88"/>
+  <dimension ref="A1:Q101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1840,7 +1840,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>3300</v>
+        <v>3299</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1866,25 +1866,25 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>smartno3</t>
+          <t>smartno8</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>kaj???????????????????????????????????????????????????????????????????????????????????????</t>
+          <t>zmotla sem se</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>what ????????????????????????????????????????????????????</t>
+          <t>I made a mistake</t>
         </is>
       </c>
       <c r="K20" s="2" t="n">
-        <v>43574.16180555556</v>
+        <v>43574.16111111111</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -1917,7 +1917,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>3302</v>
+        <v>3300</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1943,21 +1943,21 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>797</v>
+        <v>776</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>smartno24</t>
+          <t>smartno3</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>kdo ste</t>
+          <t>kaj???????????????????????????????????????????????????????????????????????????????????????</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Who are you  </t>
+          <t>what ????????????????????????????????????????????????????</t>
         </is>
       </c>
       <c r="K21" s="2" t="n">
@@ -1969,7 +1969,7 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1983,18 +1983,18 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>IQ</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2007,38 +2007,38 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Zakaj je Replja rekla Puhanki, da ni ravno ena najpametnejših? / Why did Replja say that Puhanka is "Not one of the smartest ones"?</t>
+          <t>Kako bi Kekec na drugačen način prišel do zdravila? / In what other way could Kekec get the medicine?</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Book Club One</t>
+          <t>Book Club Three</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>785</v>
+        <v>797</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>smartno12</t>
+          <t>smartno24</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>zaradi</t>
+          <t>kdo ste</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Because</t>
+          <t xml:space="preserve">Who are you  </t>
         </is>
       </c>
       <c r="K22" s="2" t="n">
-        <v>43574.14583333334</v>
+        <v>43574.16180555556</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -2055,23 +2055,23 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>IQ</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>3317</v>
+        <v>3303</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2093,29 +2093,29 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Book Club Three</t>
+          <t>Book Club One</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>smartno8</t>
+          <t>smartno12</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>kdo si</t>
+          <t>zaradi</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Who are you</t>
+          <t>Because</t>
         </is>
       </c>
       <c r="K23" s="2" t="n">
-        <v>43574.14861111111</v>
+        <v>43574.14583333334</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2132,23 +2132,23 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>IQ</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>3318</v>
+        <v>3314</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2174,25 +2174,25 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>791</v>
+        <v>781</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>smartno18</t>
+          <t>smartno8</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>enako kot smartno 18</t>
+          <t>nadaljuj z branjem</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Same as smartno 18</t>
+          <t xml:space="preserve">Continue reading </t>
         </is>
       </c>
       <c r="K24" s="2" t="n">
-        <v>43574.15416666667</v>
+        <v>43574.14583333334</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>3320</v>
+        <v>3316</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2251,25 +2251,25 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>776</v>
+        <v>797</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>smartno3</t>
+          <t>smartno24</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>hecam se</t>
+          <t>seveda bom</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>I am kidding</t>
+          <t>Of course, I will</t>
         </is>
       </c>
       <c r="K25" s="2" t="n">
-        <v>43574.15555555555</v>
+        <v>43574.14652777778</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2302,7 +2302,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>3321</v>
+        <v>3317</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2328,25 +2328,25 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>smartno3</t>
+          <t>smartno8</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>HELLO KARO P.</t>
+          <t>kdo si</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t xml:space="preserve">HELLO KARO P. </t>
+          <t>Who are you</t>
         </is>
       </c>
       <c r="K26" s="2" t="n">
-        <v>43574.15625</v>
+        <v>43574.14861111111</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -2363,23 +2363,23 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>CG</t>
+          <t>IQ</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>3322</v>
+        <v>3318</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2405,25 +2405,25 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>776</v>
+        <v>791</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>smartno3</t>
+          <t>smartno18</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>A STE ŽE NARDILI VSE JAZ SEM</t>
+          <t>enako kot smartno 18</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t xml:space="preserve">ARE YOU ALL FINISHED ALREADY I AM </t>
+          <t>Same as smartno 18</t>
         </is>
       </c>
       <c r="K27" s="2" t="n">
-        <v>43574.15694444445</v>
+        <v>43574.15416666667</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2440,23 +2440,23 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>3323</v>
+        <v>3319</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2482,25 +2482,25 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>791</v>
+        <v>776</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>smartno18</t>
+          <t>smartno3</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>ne jaz nisem</t>
+          <t>mene niste sprejeli ali kaj?!</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>No I am not</t>
+          <t>You did not accept me?!</t>
         </is>
       </c>
       <c r="K28" s="2" t="n">
-        <v>43574.15763888889</v>
+        <v>43574.15555555555</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -2508,7 +2508,7 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2517,23 +2517,23 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>3324</v>
+        <v>3320</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2568,16 +2568,16 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>a super ti pridem pomagat ok?</t>
+          <t>hecam se</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Oh great I will come help you ok?</t>
+          <t>I am kidding</t>
         </is>
       </c>
       <c r="K29" s="2" t="n">
-        <v>43574.15763888889</v>
+        <v>43574.15555555555</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -2610,7 +2610,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>3325</v>
+        <v>3321</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2645,16 +2645,16 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>prihajam!!!</t>
+          <t>HELLO KARO P.</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>I am coming!!!</t>
+          <t xml:space="preserve">HELLO KARO P. </t>
         </is>
       </c>
       <c r="K30" s="2" t="n">
-        <v>43574.15833333333</v>
+        <v>43574.15625</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -2676,7 +2676,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>CG</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
@@ -2687,7 +2687,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>3326</v>
+        <v>3322</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2713,25 +2713,25 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>smartno8</t>
+          <t>smartno3</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>nehaj nejka</t>
+          <t>A STE ŽE NARDILI VSE JAZ SEM</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Stop it Nejka</t>
+          <t xml:space="preserve">ARE YOU ALL FINISHED ALREADY I AM </t>
         </is>
       </c>
       <c r="K31" s="2" t="n">
-        <v>43574.15902777778</v>
+        <v>43574.15694444445</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -2748,23 +2748,23 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
           <t>S</t>
         </is>
       </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>CO</t>
-        </is>
-      </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>3346</v>
+        <v>3323</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2777,38 +2777,38 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
+          <t>Zakaj je Replja rekla Puhanki, da ni ravno ena najpametnejših? / Why did Replja say that Puhanka is "Not one of the smartest ones"?</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Book Club Two</t>
+          <t>Book Club Three</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>smartno14</t>
+          <t>smartno18</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Šmar</t>
+          <t>ne jaz nisem</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Šmar</t>
+          <t>No I am not</t>
         </is>
       </c>
       <c r="K32" s="2" t="n">
-        <v>43574.14861111111</v>
+        <v>43574.15763888889</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -2816,7 +2816,7 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2825,23 +2825,23 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
           <t>S</t>
         </is>
       </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>CO</t>
-        </is>
-      </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>3356</v>
+        <v>3324</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2854,11 +2854,11 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
+          <t>Zakaj je Replja rekla Puhanki, da ni ravno ena najpametnejših? / Why did Replja say that Puhanka is "Not one of the smartest ones"?</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2867,25 +2867,25 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>smartno8</t>
+          <t>smartno3</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>živijo</t>
+          <t>a super ti pridem pomagat ok?</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hello  </t>
+          <t>Oh great I will come help you ok?</t>
         </is>
       </c>
       <c r="K33" s="2" t="n">
-        <v>43574.15416666667</v>
+        <v>43574.15763888889</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2902,12 +2902,12 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>CG</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
@@ -2918,7 +2918,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>3358</v>
+        <v>3325</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2931,11 +2931,11 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
+          <t>Zakaj je Replja rekla Puhanki, da ni ravno ena najpametnejših? / Why did Replja say that Puhanka is "Not one of the smartest ones"?</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2944,25 +2944,25 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>smartno8</t>
+          <t>smartno3</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>hoj hoj</t>
+          <t>prihajam!!!</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Hey hey</t>
+          <t>I am coming!!!</t>
         </is>
       </c>
       <c r="K34" s="2" t="n">
-        <v>43574.15555555555</v>
+        <v>43574.15833333333</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -2970,7 +2970,7 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>CG</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
@@ -2995,7 +2995,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>3359</v>
+        <v>3326</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -3008,11 +3008,11 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
+          <t>Zakaj je Replja rekla Puhanki, da ni ravno ena najpametnejših? / Why did Replja say that Puhanka is "Not one of the smartest ones"?</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3030,16 +3030,16 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>jaz imam nov obraz</t>
+          <t>nehaj nejka</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>I have a new face</t>
+          <t>Stop it Nejka</t>
         </is>
       </c>
       <c r="K35" s="2" t="n">
-        <v>43574.15694444445</v>
+        <v>43574.15902777778</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>3364</v>
+        <v>3339</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -3094,29 +3094,29 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Book Club Four</t>
+          <t>Book Club Two</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>smartno6</t>
+          <t>smartno10</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>ŽŽŽŽŽŽŽŽŽŽŽŽŽŽŽŽŽŽŽŽŽžiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiivvvvvvvvvvvvvvvvvvvvvviiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiijjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjooooooooooooooooooooooooooooooooooooooooo</t>
+          <t>hahahah dobra</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Hhhhhhhhhhhhhheeeeeeeeeellllllllllllooooooooooo</t>
+          <t xml:space="preserve">hahahah good one </t>
         </is>
       </c>
       <c r="K36" s="2" t="n">
-        <v>43574.14375</v>
+        <v>43574.13680555556</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>CG</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
@@ -3149,7 +3149,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>3386</v>
+        <v>3344</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -3162,11 +3162,11 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3175,25 +3175,25 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>smartno10</t>
+          <t>smartno14</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>VEM!!!!HAHAHAHAH</t>
+          <t>gdsjcgrgfuzegzugerzgtfzgihaeojfdaskjfioshfiudsuhfgfiuhdhfiuvhfdshbiudhigerhughtriudghfiugjsgdhsfdkjhfdghfghhkjghgkhadghfvklhghdfhgjhklghb,b!!!!!!!!!!!!!!!!!</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>I KNOW!!!! HAHAHAHAHAH</t>
+          <t>gibberish</t>
         </is>
       </c>
       <c r="K37" s="2" t="n">
-        <v>43574.125</v>
+        <v>43574.14722222222</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3215,18 +3215,18 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>O</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>3388</v>
+        <v>3346</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -3239,11 +3239,11 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3261,16 +3261,16 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>t                                                                                  uuioopošpđšđ</t>
+          <t>Šmar</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>gibberish</t>
+          <t>Šmar</t>
         </is>
       </c>
       <c r="K38" s="2" t="n">
-        <v>43574.12708333333</v>
+        <v>43574.14861111111</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3292,18 +3292,18 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>3389</v>
+        <v>3347</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -3316,11 +3316,11 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3329,25 +3329,25 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>smartno21</t>
+          <t>smartno14</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>filip</t>
+          <t>Šmatno6       živjoooooo     kniga</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Filip  </t>
+          <t>Šmartno6 hellooooooo book</t>
         </is>
       </c>
       <c r="K39" s="2" t="n">
-        <v>43574.12847222222</v>
+        <v>43574.14930555555</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3369,7 +3369,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>CG</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
@@ -3380,7 +3380,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>3390</v>
+        <v>3356</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -3393,38 +3393,38 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Book Club Two</t>
+          <t>Book Club Three</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>801</v>
+        <v>781</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>MetaHojsSmartno</t>
+          <t>smartno8</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Filip prosim nadaljuj z branjem.</t>
+          <t>živijo</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Filip, please continue reading. </t>
+          <t xml:space="preserve">Hello  </t>
         </is>
       </c>
       <c r="K40" s="2" t="n">
-        <v>43574.12986111111</v>
+        <v>43574.15416666667</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3446,18 +3446,18 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>CG</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>3392</v>
+        <v>3357</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -3470,34 +3470,38 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Book Club Two</t>
+          <t>Book Club Three</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>794</v>
+        <v>776</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>smartno21</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
-        <v>1244</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1244</v>
+          <t>smartno3</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>ja živjo</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Yes hello</t>
+        </is>
       </c>
       <c r="K41" s="2" t="n">
-        <v>43574.13125</v>
+        <v>43574.15486111111</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -3505,7 +3509,7 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3519,18 +3523,18 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>CG</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>3393</v>
+        <v>3358</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -3543,34 +3547,38 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Book Club Two</t>
+          <t>Book Club Three</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>smartno17</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
-        <v>9</v>
-      </c>
-      <c r="J42" t="n">
-        <v>9</v>
+          <t>smartno8</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>hoj hoj</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Hey hey</t>
+        </is>
       </c>
       <c r="K42" s="2" t="n">
-        <v>43574.13125</v>
+        <v>43574.15555555555</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -3592,18 +3600,18 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>CG</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>3398</v>
+        <v>3359</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -3616,38 +3624,38 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Book Club Two</t>
+          <t>Book Club Three</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>794</v>
+        <v>781</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>smartno21</t>
+          <t>smartno8</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>kaj</t>
+          <t>jaz imam nov obraz</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>What</t>
+          <t>I have a new face</t>
         </is>
       </c>
       <c r="K43" s="2" t="n">
-        <v>43574.13680555556</v>
+        <v>43574.15694444445</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -3655,7 +3663,7 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3664,7 +3672,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -3680,7 +3688,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>3406</v>
+        <v>3364</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -3693,38 +3701,38 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Book Club Three</t>
+          <t>Book Club Four</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>smartno9</t>
+          <t>smartno6</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>kay jenaro0999zaasukgdy</t>
+          <t>ŽŽŽŽŽŽŽŽŽŽŽŽŽŽŽŽŽŽŽŽŽžiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiivvvvvvvvvvvvvvvvvvvvvviiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiijjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjooooooooooooooooooooooooooooooooooooooooo</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>gibberish</t>
+          <t>Hhhhhhhhhhhhhheeeeeeeeeellllllllllllooooooooooo</t>
         </is>
       </c>
       <c r="K44" s="2" t="n">
-        <v>43574.12638888889</v>
+        <v>43574.14375</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -3732,7 +3740,7 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3746,18 +3754,18 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>CG</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>3410</v>
+        <v>3365</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -3770,38 +3778,38 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Book Club Three</t>
+          <t>Book Club Four</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>782</v>
+        <v>801</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>smartno9</t>
+          <t>MetaHojsSmartno</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>&lt;JAS SEM JAKOB</t>
+          <t>Filip, nadaljuj z branjem.</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>I AM JAKOB</t>
+          <t xml:space="preserve">Filip, continue reading. </t>
         </is>
       </c>
       <c r="K45" s="2" t="n">
-        <v>43574.12986111111</v>
+        <v>43574.14444444444</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -3809,7 +3817,7 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3823,18 +3831,18 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>M</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>3411</v>
+        <v>3367</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -3847,38 +3855,38 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Book Club Three</t>
+          <t>Book Club Four</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>smartno9</t>
+          <t>smartno6</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>HHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHNNNNNHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHH</t>
+          <t xml:space="preserve">smartno14     pošli  mi   odgovor                                                                         </t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>HIHIHIHIHIHIHIIHIHIIHIHIHIHIHIIHIHI</t>
+          <t>smartno14 send me the answer</t>
         </is>
       </c>
       <c r="K46" s="2" t="n">
-        <v>43574.12986111111</v>
+        <v>43574.14930555555</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -3886,7 +3894,7 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3911,7 +3919,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>3413</v>
+        <v>3386</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -3933,29 +3941,29 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Book Club Three</t>
+          <t>Book Club Two</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>smartno9</t>
+          <t>smartno10</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>JAS SEM UBISTV FILIP</t>
+          <t>VEM!!!!HAHAHAHAH</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>I AM ACTUALLY FILIP</t>
+          <t>I KNOW!!!! HAHAHAHAHAH</t>
         </is>
       </c>
       <c r="K47" s="2" t="n">
-        <v>43574.13263888889</v>
+        <v>43574.125</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -3977,18 +3985,18 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>3414</v>
+        <v>3388</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -4010,29 +4018,29 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Book Club Three</t>
+          <t>Book Club Two</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>smartno9</t>
+          <t>smartno14</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>NEEEEE</t>
+          <t>t                                                                                  uuioopošpđšđ</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>NOOOOOOOOOO</t>
+          <t>gibberish</t>
         </is>
       </c>
       <c r="K48" s="2" t="n">
-        <v>43574.13611111111</v>
+        <v>43574.12708333333</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -4040,7 +4048,7 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -4054,18 +4062,18 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>O</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>3415</v>
+        <v>3389</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -4087,25 +4095,29 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Book Club Three</t>
+          <t>Book Club Two</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>smartno9</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J49" t="n">
-        <v>3.3</v>
+          <t>smartno21</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>filip</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Filip  </t>
+        </is>
       </c>
       <c r="K49" s="2" t="n">
-        <v>43574.13680555556</v>
+        <v>43574.12847222222</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -4113,7 +4125,7 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -4127,18 +4139,18 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>3416</v>
+        <v>3390</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -4160,29 +4172,29 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Book Club Three</t>
+          <t>Book Club Two</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>781</v>
+        <v>801</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>smartno8</t>
+          <t>MetaHojsSmartno</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>nehaj mi pošiljati sporočila</t>
+          <t>Filip prosim nadaljuj z branjem.</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Oh you!</t>
+          <t xml:space="preserve">Filip, please continue reading. </t>
         </is>
       </c>
       <c r="K50" s="2" t="n">
-        <v>43574.14791666667</v>
+        <v>43574.12986111111</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -4190,7 +4202,7 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -4204,18 +4216,18 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>M</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>M</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>3417</v>
+        <v>3391</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -4237,29 +4249,29 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Book Club Three</t>
+          <t>Book Club Two</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>776</v>
+        <v>787</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>smartno3</t>
+          <t>smartno14</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>oh ti !!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!! Kdor koli si že</t>
+          <t>Koliko si stara                    odpiši!</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Oh you!!!!!!!!!!!!!!!! Whoever you are</t>
+          <t>How old are you      answer me!!!</t>
         </is>
       </c>
       <c r="K51" s="2" t="n">
-        <v>43574.15416666667</v>
+        <v>43574.13055555556</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -4267,7 +4279,7 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4276,7 +4288,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -4292,7 +4304,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>3418</v>
+        <v>3392</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -4314,29 +4326,25 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Book Club Three</t>
+          <t>Book Club Two</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>776</v>
+        <v>794</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>smartno3</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>tiiiiiiiiiiii smartno 9</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Yooooouuuuuu smartno 9</t>
-        </is>
+          <t>smartno21</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>1244</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1244</v>
       </c>
       <c r="K52" s="2" t="n">
-        <v>43574.1625</v>
+        <v>43574.13125</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -4344,7 +4352,7 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4358,18 +4366,18 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>O</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>3420</v>
+        <v>3393</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -4391,29 +4399,25 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Book Club Three</t>
+          <t>Book Club Two</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>smartno24</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>zakaj</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Why  </t>
-        </is>
+          <t>smartno17</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>9</v>
+      </c>
+      <c r="J53" t="n">
+        <v>9</v>
       </c>
       <c r="K53" s="2" t="n">
-        <v>43574.16388888889</v>
+        <v>43574.13125</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -4421,7 +4425,7 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4430,23 +4434,23 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>O</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>3422</v>
+        <v>3398</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -4468,29 +4472,29 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Book Club Three</t>
+          <t>Book Club Two</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>781</v>
+        <v>794</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>smartno8</t>
+          <t>smartno21</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>izključ računalnik</t>
+          <t>kaj</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Turn off your computer</t>
+          <t>What</t>
         </is>
       </c>
       <c r="K54" s="2" t="n">
-        <v>43574.16458333333</v>
+        <v>43574.13680555556</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -4507,7 +4511,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
@@ -4523,7 +4527,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>3431</v>
+        <v>3400</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -4545,29 +4549,29 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Book Club Four</t>
+          <t>Book Club Two</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>smartno13</t>
+          <t>smartno5</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>jaz se tudi strinjam z smartno 11</t>
+          <t>ja dobra mideja smartno21</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>I also agree with Smartno11</t>
+          <t>Yes that's a good idea smartno21</t>
         </is>
       </c>
       <c r="K55" s="2" t="n">
-        <v>43574.12638888889</v>
+        <v>43574.15972222222</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -4575,7 +4579,7 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4600,7 +4604,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>3433</v>
+        <v>3406</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -4622,29 +4626,29 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Book Club Four</t>
+          <t>Book Club Three</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>smartno11</t>
+          <t>smartno9</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>okej bom probala</t>
+          <t>kay jenaro0999zaasukgdy</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Okay I will try</t>
+          <t>gibberish</t>
         </is>
       </c>
       <c r="K56" s="2" t="n">
-        <v>43574.12777777778</v>
+        <v>43574.12638888889</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -4666,18 +4670,18 @@
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>O</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>3434</v>
+        <v>3410</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -4699,29 +4703,29 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Book Club Four</t>
+          <t>Book Club Three</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>smartno6</t>
+          <t>smartno9</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>ha ,ha,ha,ha!!!</t>
+          <t>&lt;JAS SEM JAKOB</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>ha ,ha,ha,ha!!!</t>
+          <t>I AM JAKOB</t>
         </is>
       </c>
       <c r="K57" s="2" t="n">
-        <v>43574.12916666667</v>
+        <v>43574.12986111111</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -4743,18 +4747,18 @@
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>II</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>3435</v>
+        <v>3411</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -4776,29 +4780,29 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Book Club Four</t>
+          <t>Book Club Three</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>smartno6</t>
+          <t>smartno9</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>bu    huuuuuuuuuuu       uuuuuuuuuuuuuuuuuuuu</t>
+          <t>HHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHNNNNNHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHH</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>bu    huuuuuuuuuuu       uuuuuuuuuuuuuuuuuuuu</t>
+          <t>HIHIHIHIHIHIHIIHIHIIHIHIHIHIHIIHIHI</t>
         </is>
       </c>
       <c r="K58" s="2" t="n">
-        <v>43574.13055555556</v>
+        <v>43574.12986111111</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -4820,18 +4824,18 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>3438</v>
+        <v>3413</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -4853,29 +4857,29 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Book Club Four</t>
+          <t>Book Club Three</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>smartno6</t>
+          <t>smartno9</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>NEHI  MI   &lt;&lt;ODPISATI</t>
+          <t>JAS SEM UBISTV FILIP</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>STOP WRITING BACK</t>
+          <t>I AM ACTUALLY FILIP</t>
         </is>
       </c>
       <c r="K59" s="2" t="n">
-        <v>43574.13194444445</v>
+        <v>43574.13263888889</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -4897,18 +4901,18 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>II</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>3439</v>
+        <v>3414</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -4930,29 +4934,29 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Book Club Four</t>
+          <t>Book Club Three</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>smartno6</t>
+          <t>smartno9</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>bom</t>
+          <t>NEEEEE</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>I will</t>
+          <t>NOOOOOOOOOO</t>
         </is>
       </c>
       <c r="K60" s="2" t="n">
-        <v>43574.13263888889</v>
+        <v>43574.13611111111</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -4960,7 +4964,7 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4985,7 +4989,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>3443</v>
+        <v>3415</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -4994,42 +4998,38 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>smartnoB</t>
+          <t>Smartno</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Kako bi Kekec na drugačen način prišel do zdravila?</t>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Book Club Two</t>
+          <t>Book Club Three</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>824</v>
+        <v>782</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>smartnoB20</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>HEJ NANA</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>HEY NANA  (girl's name)</t>
-        </is>
+          <t>smartno9</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J61" t="n">
+        <v>3.3</v>
       </c>
       <c r="K61" s="2" t="n">
-        <v>43581.1533449074</v>
+        <v>43574.13680555556</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -5051,18 +5051,18 @@
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>CG</t>
+          <t>O</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>3444</v>
+        <v>3416</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -5071,42 +5071,42 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>smartnoB</t>
+          <t>Smartno</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Kako bi Kekec na drugačen način prišel do zdravila?</t>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Book Club Two</t>
+          <t>Book Club Three</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>824</v>
+        <v>781</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>smartnoB20</t>
+          <t>smartno8</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>EEE</t>
+          <t>nehaj mi pošiljati sporočila</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>EEE</t>
+          <t>Oh you!</t>
         </is>
       </c>
       <c r="K62" s="2" t="n">
-        <v>43581.15539351852</v>
+        <v>43574.14791666667</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -5128,18 +5128,18 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>3446</v>
+        <v>3417</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -5148,42 +5148,42 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>smartnoB</t>
+          <t>Smartno</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Kako bi Kekec na drugačen način prišel do zdravila?</t>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Book Club Four</t>
+          <t>Book Club Three</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>811</v>
+        <v>776</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>smartnoB7</t>
+          <t>smartno3</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Tako</t>
+          <t>oh ti !!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!! Kdor koli si že</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t xml:space="preserve">There you go </t>
+          <t>Oh you!!!!!!!!!!!!!!!! Whoever you are</t>
         </is>
       </c>
       <c r="K63" s="2" t="n">
-        <v>43581.15576388889</v>
+        <v>43574.15416666667</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -5191,7 +5191,7 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>3454</v>
+        <v>3418</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -5225,42 +5225,42 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>smartnoB</t>
+          <t>Smartno</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Zakaj je Replja rekla Puhanki, da ni ravno ena najpametnejših? / Why did Replja say that Puhanka is "Not one of the smartest ones"?</t>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Book Club One</t>
+          <t>Book Club Three</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>816</v>
+        <v>776</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>smartnoB12</t>
+          <t>smartno3</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>kdo ste</t>
+          <t>tiiiiiiiiiiii smartno 9</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Who are you</t>
+          <t>Yooooouuuuuu smartno 9</t>
         </is>
       </c>
       <c r="K64" s="2" t="n">
-        <v>43581.16278935185</v>
+        <v>43574.1625</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -5268,7 +5268,7 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -5277,23 +5277,23 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>IQ</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>3457</v>
+        <v>3420</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -5302,42 +5302,42 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>smartnoB</t>
+          <t>Smartno</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Zakaj je Replja rekla Puhanki, da ni ravno ena najpametnejših? / Why did Replja say that Puhanka is "Not one of the smartest ones"?</t>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Book Club Two</t>
+          <t>Book Club Three</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>824</v>
+        <v>797</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>smartnoB20</t>
+          <t>smartno24</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>ha,ha</t>
+          <t>zakaj</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t xml:space="preserve">ha, ha. </t>
+          <t xml:space="preserve">Why  </t>
         </is>
       </c>
       <c r="K65" s="2" t="n">
-        <v>43581.14582175926</v>
+        <v>43574.16388888889</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -5345,7 +5345,7 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5354,7 +5354,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
@@ -5370,7 +5370,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>3458</v>
+        <v>3421</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -5379,42 +5379,42 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>smartnoB</t>
+          <t>Smartno</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Zakaj je Replja rekla Puhanki, da ni ravno ena najpametnejših? / Why did Replja say that Puhanka is "Not one of the smartest ones"?</t>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Book Club Two</t>
+          <t>Book Club Three</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>813</v>
+        <v>781</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>smartnoB9</t>
+          <t>smartno8</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>NE POVEM.</t>
+          <t>ker sem pač profi</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>I AM NOT TELLING</t>
+          <t>Because I am a pro</t>
         </is>
       </c>
       <c r="K66" s="2" t="n">
-        <v>43581.1466087963</v>
+        <v>43574.16458333333</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5431,7 +5431,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>A</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
@@ -5447,7 +5447,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>3459</v>
+        <v>3422</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -5456,42 +5456,42 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>smartnoB</t>
+          <t>Smartno</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Zakaj je Replja rekla Puhanki, da ni ravno ena najpametnejših? / Why did Replja say that Puhanka is "Not one of the smartest ones"?</t>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Book Club Two</t>
+          <t>Book Club Three</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>824</v>
+        <v>781</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>smartnoB20</t>
+          <t>smartno8</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>OMG</t>
+          <t>izključ računalnik</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>OMG</t>
+          <t>Turn off your computer</t>
         </is>
       </c>
       <c r="K67" s="2" t="n">
-        <v>43581.14663194444</v>
+        <v>43574.16458333333</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -5499,7 +5499,7 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>3466</v>
+        <v>3428</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -5533,51 +5533,51 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>smartnoB</t>
+          <t>Smartno</t>
         </is>
       </c>
       <c r="D68" t="n">
+        <v>8</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Book Club Four</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>792</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>smartno19</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>da se strinjam s smartno11</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Yes I agree with you Smartno11</t>
+        </is>
+      </c>
+      <c r="K68" s="2" t="n">
+        <v>43574.125</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>6</v>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Zakaj je Replja rekla Puhanki, da ni ravno ena najpametnejših? / Why did Replja say that Puhanka is "Not one of the smartest ones"?</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Book Club Four</t>
-        </is>
-      </c>
-      <c r="G68" t="n">
-        <v>822</v>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>smartnoB18</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>pp</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>pp</t>
-        </is>
-      </c>
-      <c r="K68" s="2" t="n">
-        <v>43581.14559027777</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>10</v>
-      </c>
       <c r="N68" t="inlineStr">
         <is>
           <t>No</t>
@@ -5590,18 +5590,18 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>3467</v>
+        <v>3431</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -5610,50 +5610,50 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>smartnoB</t>
+          <t>Smartno</t>
         </is>
       </c>
       <c r="D69" t="n">
+        <v>8</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Book Club Four</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>786</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>smartno13</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>jaz se tudi strinjam z smartno 11</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>I also agree with Smartno11</t>
+        </is>
+      </c>
+      <c r="K69" s="2" t="n">
+        <v>43574.12638888889</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>6</v>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Zakaj je Replja rekla Puhanki, da ni ravno ena najpametnejših? / Why did Replja say that Puhanka is "Not one of the smartest ones"?</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Book Club Four</t>
-        </is>
-      </c>
-      <c r="G69" t="n">
-        <v>814</v>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>smartnoB10</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>Ne povem.</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>I am not telling</t>
-        </is>
-      </c>
-      <c r="K69" s="2" t="n">
-        <v>43581.14689814814</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>16</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>3478</v>
+        <v>3433</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -5687,42 +5687,42 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>smartnoB</t>
+          <t>Smartno</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Book Club One</t>
+          <t>Book Club Four</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>823</v>
+        <v>784</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>smartnoB19</t>
+          <t>smartno11</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>AMPAK POTEM SI UMAZAN</t>
+          <t>okej bom probala</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>BUT THEN YOU'D BE DIRTY</t>
+          <t>Okay I will try</t>
         </is>
       </c>
       <c r="K70" s="2" t="n">
-        <v>43581.1424537037</v>
+        <v>43574.12777777778</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5744,18 +5744,18 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>DAA</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>3488</v>
+        <v>3434</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -5764,42 +5764,42 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>smartnoB</t>
+          <t>Smartno</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Book Club Three</t>
+          <t>Book Club Four</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>826</v>
+        <v>779</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>smartnoB22</t>
+          <t>smartno6</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>kdo si ti</t>
+          <t>ha ,ha,ha,ha!!!</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Who are you</t>
+          <t>ha ,ha,ha,ha!!!</t>
         </is>
       </c>
       <c r="K71" s="2" t="n">
-        <v>43581.14258101852</v>
+        <v>43574.12916666667</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5816,23 +5816,23 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>IQ</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>3489</v>
+        <v>3435</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -5841,42 +5841,42 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>smartnoB</t>
+          <t>Smartno</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Book Club Three</t>
+          <t>Book Club Four</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>818</v>
+        <v>779</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>smartnoB14</t>
+          <t>smartno6</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Kdo si ti</t>
+          <t>bu    huuuuuuuuuuu       uuuuuuuuuuuuuuuuuuuu</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Who are you</t>
+          <t>bu    huuuuuuuuuuu       uuuuuuuuuuuuuuuuuuuu</t>
         </is>
       </c>
       <c r="K72" s="2" t="n">
-        <v>43581.15225694444</v>
+        <v>43574.13055555556</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5893,23 +5893,23 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>IQ</t>
+          <t>O</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>3490</v>
+        <v>3438</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -5918,42 +5918,42 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>smartnoB</t>
+          <t>Smartno</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Book Club Three</t>
+          <t>Book Club Four</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>818</v>
+        <v>779</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>smartnoB14</t>
+          <t>smartno6</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>ena punca</t>
+          <t>NEHI  MI   &lt;&lt;ODPISATI</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>I am a girl</t>
+          <t>STOP WRITING BACK</t>
         </is>
       </c>
       <c r="K73" s="2" t="n">
-        <v>43581.15503472222</v>
+        <v>43574.13194444445</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5970,23 +5970,23 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>IA</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>3497</v>
+        <v>3443</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -5999,38 +5999,38 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
+          <t>Kako bi Kekec na drugačen način prišel do zdravila?</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Book Club Four</t>
+          <t>Book Club Two</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>835</v>
+        <v>824</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>LaraHodejSmartnoB</t>
+          <t>smartnoB20</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Odlične ideje!</t>
+          <t>HEJ NANA</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Excellent ideas!</t>
+          <t>HEY NANA  (girl's name)</t>
         </is>
       </c>
       <c r="K74" s="2" t="n">
-        <v>43581.13016203704</v>
+        <v>43581.1533449074</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -6052,18 +6052,18 @@
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>ME</t>
+          <t>CG</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>3498</v>
+        <v>3444</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -6076,38 +6076,38 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
+          <t>Kako bi Kekec na drugačen način prišel do zdravila?</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Book Club Four</t>
+          <t>Book Club Two</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>smartnoB18</t>
+          <t>smartnoB20</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>kdo si</t>
+          <t>EEE</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Who are you </t>
+          <t>EEE</t>
         </is>
       </c>
       <c r="K75" s="2" t="n">
-        <v>43581.13756944444</v>
+        <v>43581.15539351852</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -6124,23 +6124,23 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>IQ</t>
+          <t>O</t>
         </is>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>3499</v>
+        <v>3446</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -6153,11 +6153,11 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
+          <t>Kako bi Kekec na drugačen način prišel do zdravila?</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -6166,25 +6166,25 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>827</v>
+        <v>811</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>smartnoB23</t>
+          <t>smartnoB7</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>smartnoB23</t>
+          <t>Tako</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>SmartnoB23</t>
+          <t xml:space="preserve">There you go </t>
         </is>
       </c>
       <c r="K76" s="2" t="n">
-        <v>43581.14811342592</v>
+        <v>43581.15576388889</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -6192,7 +6192,7 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -6201,23 +6201,23 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>IA</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>3503</v>
+        <v>3454</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -6230,11 +6230,11 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+          <t>Zakaj je Replja rekla Puhanki, da ni ravno ena najpametnejših? / Why did Replja say that Puhanka is "Not one of the smartest ones"?</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -6252,16 +6252,16 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Ares</t>
+          <t>kdo ste</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oh really </t>
+          <t>Who are you</t>
         </is>
       </c>
       <c r="K77" s="2" t="n">
-        <v>43581.12109953703</v>
+        <v>43581.16278935185</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -6278,23 +6278,23 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>IQ</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>3504</v>
+        <v>3457</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -6307,38 +6307,38 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+          <t>Zakaj je Replja rekla Puhanki, da ni ravno ena najpametnejših? / Why did Replja say that Puhanka is "Not one of the smartest ones"?</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Book Club One</t>
+          <t>Book Club Two</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>816</v>
+        <v>824</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>smartnoB12</t>
+          <t>smartnoB20</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Ali si punca jaz sem</t>
+          <t>ha,ha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Are you a girl I am</t>
+          <t xml:space="preserve">ha, ha. </t>
         </is>
       </c>
       <c r="K78" s="2" t="n">
-        <v>43581.12274305556</v>
+        <v>43581.14582175926</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
@@ -6371,7 +6371,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>3511</v>
+        <v>3458</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -6384,38 +6384,38 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+          <t>Zakaj je Replja rekla Puhanki, da ni ravno ena najpametnejših? / Why did Replja say that Puhanka is "Not one of the smartest ones"?</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Book Club One</t>
+          <t>Book Club Two</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>823</v>
+        <v>813</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>smartnoB19</t>
+          <t>smartnoB9</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Hvala</t>
+          <t>NE POVEM.</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thank you  </t>
+          <t>I AM NOT TELLING</t>
         </is>
       </c>
       <c r="K79" s="2" t="n">
-        <v>43581.13268518518</v>
+        <v>43581.1466087963</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -6423,7 +6423,7 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>3513</v>
+        <v>3459</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -6461,38 +6461,38 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+          <t>Zakaj je Replja rekla Puhanki, da ni ravno ena najpametnejših? / Why did Replja say that Puhanka is "Not one of the smartest ones"?</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Book Club One</t>
+          <t>Book Club Two</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>smartnoB19</t>
+          <t>smartnoB20</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Arnes ali si fant ali punca</t>
+          <t>OMG</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Oh really are you a boy or a girl</t>
+          <t>OMG</t>
         </is>
       </c>
       <c r="K80" s="2" t="n">
-        <v>43581.13376157408</v>
+        <v>43581.14663194444</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -6500,7 +6500,7 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6509,7 +6509,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
@@ -6525,7 +6525,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>3519</v>
+        <v>3466</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -6538,38 +6538,38 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+          <t>Zakaj je Replja rekla Puhanki, da ni ravno ena najpametnejših? / Why did Replja say that Puhanka is "Not one of the smartest ones"?</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Book Club Two</t>
+          <t>Book Club Four</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>smartnoB20</t>
+          <t>smartnoB18</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>filip</t>
+          <t>pp</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t xml:space="preserve">Filip </t>
+          <t>pp</t>
         </is>
       </c>
       <c r="K81" s="2" t="n">
-        <v>43581.12278935185</v>
+        <v>43581.14559027777</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6591,18 +6591,18 @@
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>O</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>3524</v>
+        <v>3467</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -6615,38 +6615,38 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+          <t>Zakaj je Replja rekla Puhanki, da ni ravno ena najpametnejših? / Why did Replja say that Puhanka is "Not one of the smartest ones"?</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Book Club Two</t>
+          <t>Book Club Four</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>825</v>
+        <v>814</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>smartnoB21</t>
+          <t>smartnoB10</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>ha ha</t>
+          <t>Ne povem.</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ha ha </t>
+          <t>I am not telling</t>
         </is>
       </c>
       <c r="K82" s="2" t="n">
-        <v>43593.56542824074</v>
+        <v>43581.14689814814</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -6654,7 +6654,7 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6679,7 +6679,7 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>3530</v>
+        <v>3478</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -6692,38 +6692,38 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Book Club Four</t>
+          <t>Book Club One</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>smartnoB18</t>
+          <t>smartnoB19</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>kdo si ti</t>
+          <t>AMPAK POTEM SI UMAZAN</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Who are you</t>
+          <t>BUT THEN YOU'D BE DIRTY</t>
         </is>
       </c>
       <c r="K83" s="2" t="n">
-        <v>43581.1207175926</v>
+        <v>43581.1424537037</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6740,23 +6740,23 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>IQ</t>
+          <t>DAA</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>3531</v>
+        <v>3488</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -6769,38 +6769,38 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Book Club Four</t>
+          <t>Book Club Three</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>811</v>
+        <v>826</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>smartnoB7</t>
+          <t>smartnoB22</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Jaz sem smartnoB7</t>
+          <t>kdo si ti</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>I am smartnoB7</t>
+          <t>Who are you</t>
         </is>
       </c>
       <c r="K84" s="2" t="n">
-        <v>43581.12131944444</v>
+        <v>43581.14258101852</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6817,12 +6817,12 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>IA</t>
+          <t>IQ</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr">
@@ -6833,7 +6833,7 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>3532</v>
+        <v>3489</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -6846,38 +6846,38 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Book Club Four</t>
+          <t>Book Club Three</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>smartnoB18</t>
+          <t>smartnoB14</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>lllllllll</t>
+          <t>Kdo si ti</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>IIIIIIIII</t>
+          <t>Who are you</t>
         </is>
       </c>
       <c r="K85" s="2" t="n">
-        <v>43581.12248842593</v>
+        <v>43581.15225694444</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6894,23 +6894,23 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>IQ</t>
         </is>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>3536</v>
+        <v>3490</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -6923,38 +6923,38 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Book Club Four</t>
+          <t>Book Club Three</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>827</v>
+        <v>818</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>smartnoB23</t>
+          <t>smartnoB14</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>jaz sem smartnoB23</t>
+          <t>ena punca</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>I am SmartnoB23</t>
+          <t>I am a girl</t>
         </is>
       </c>
       <c r="K86" s="2" t="n">
-        <v>43581.13034722222</v>
+        <v>43581.15503472222</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6971,12 +6971,12 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>A</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>IA</t>
         </is>
       </c>
       <c r="Q86" t="inlineStr">
@@ -6987,7 +6987,7 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>3538</v>
+        <v>3498</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -7000,11 +7000,11 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -7013,25 +7013,25 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>814</v>
+        <v>822</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>smartnoB10</t>
+          <t>smartnoB18</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>kdo si</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>a</t>
+          <t xml:space="preserve">Who are you </t>
         </is>
       </c>
       <c r="K87" s="2" t="n">
-        <v>43581.13325231482</v>
+        <v>43581.13756944444</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -7048,92 +7048,1093 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>IQ</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
+        <v>3499</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>OŠ Šmartno pod Šmarno goro</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>smartnoB</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>7</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Book Club Four</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>827</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>smartnoB23</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>smartnoB23</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>SmartnoB23</t>
+        </is>
+      </c>
+      <c r="K88" s="2" t="n">
+        <v>43581.14811342592</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>IA</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>3503</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>OŠ Šmartno pod Šmarno goro</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>smartnoB</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>8</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Book Club One</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>816</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>smartnoB12</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Ares</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oh really </t>
+        </is>
+      </c>
+      <c r="K89" s="2" t="n">
+        <v>43581.12109953703</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
+        <v>6</v>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>3504</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>OŠ Šmartno pod Šmarno goro</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>smartnoB</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>8</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Book Club One</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>816</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>smartnoB12</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Ali si punca jaz sem</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Are you a girl I am</t>
+        </is>
+      </c>
+      <c r="K90" s="2" t="n">
+        <v>43581.12274305556</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
+        <v>6</v>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>3511</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>OŠ Šmartno pod Šmarno goro</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>smartnoB</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>8</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Book Club One</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>823</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>smartnoB19</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Hvala</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thank you  </t>
+        </is>
+      </c>
+      <c r="K91" s="2" t="n">
+        <v>43581.13268518518</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
+        <v>6</v>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>3513</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>OŠ Šmartno pod Šmarno goro</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>smartnoB</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>8</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Book Club One</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>823</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>smartnoB19</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Arnes ali si fant ali punca</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Oh really are you a boy or a girl</t>
+        </is>
+      </c>
+      <c r="K92" s="2" t="n">
+        <v>43581.13376157408</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
+        <v>6</v>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>3519</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>OŠ Šmartno pod Šmarno goro</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>smartnoB</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>8</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Book Club Two</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>824</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>smartnoB20</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>filip</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Filip </t>
+        </is>
+      </c>
+      <c r="K93" s="2" t="n">
+        <v>43581.12278935185</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
+        <v>6</v>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>3524</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>OŠ Šmartno pod Šmarno goro</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>smartnoB</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>8</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Book Club Two</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>825</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>smartnoB21</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>ha ha</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ha ha </t>
+        </is>
+      </c>
+      <c r="K94" s="2" t="n">
+        <v>43593.56542824074</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
+        <v>6</v>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>3526</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>OŠ Šmartno pod Šmarno goro</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>smartnoB</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>8</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Book Club Three</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>826</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>smartnoB22</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>pri kateri zgodbi si</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>At what story are you?</t>
+        </is>
+      </c>
+      <c r="K95" s="2" t="n">
+        <v>43581.12908564815</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
+        <v>6</v>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>3530</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>OŠ Šmartno pod Šmarno goro</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>smartnoB</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>8</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Book Club Four</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>822</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>smartnoB18</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>kdo si ti</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Who are you</t>
+        </is>
+      </c>
+      <c r="K96" s="2" t="n">
+        <v>43581.1207175926</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
+        <v>6</v>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>IQ</t>
+        </is>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>3531</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>OŠ Šmartno pod Šmarno goro</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>smartnoB</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>8</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Book Club Four</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>811</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>smartnoB7</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>Jaz sem smartnoB7</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>I am smartnoB7</t>
+        </is>
+      </c>
+      <c r="K97" s="2" t="n">
+        <v>43581.12131944444</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
+        <v>9</v>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>IA</t>
+        </is>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>3532</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>OŠ Šmartno pod Šmarno goro</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>smartnoB</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>8</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Book Club Four</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>822</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>smartnoB18</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>lllllllll</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>IIIIIIIII</t>
+        </is>
+      </c>
+      <c r="K98" s="2" t="n">
+        <v>43581.12248842593</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
+        <v>6</v>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>3536</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>OŠ Šmartno pod Šmarno goro</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>smartnoB</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>8</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Book Club Four</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>827</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>smartnoB23</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>jaz sem smartnoB23</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>I am SmartnoB23</t>
+        </is>
+      </c>
+      <c r="K99" s="2" t="n">
+        <v>43581.13034722222</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
+        <v>6</v>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>3538</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>OŠ Šmartno pod Šmarno goro</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>smartnoB</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>8</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Book Club Four</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>814</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>smartnoB10</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="K100" s="2" t="n">
+        <v>43581.13325231482</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
+        <v>9</v>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
         <v>3539</v>
       </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>OŠ Šmartno pod Šmarno goro</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>OŠ Šmartno pod Šmarno goro</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
         <is>
           <t>smartnoB</t>
         </is>
       </c>
-      <c r="D88" t="n">
+      <c r="D101" t="n">
         <v>8</v>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>Book Club Four</t>
         </is>
       </c>
-      <c r="G88" t="n">
+      <c r="G101" t="n">
         <v>814</v>
       </c>
-      <c r="H88" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>smartnoB10</t>
         </is>
       </c>
-      <c r="I88" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="J88" t="inlineStr">
+      <c r="J101" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="K88" s="2" t="n">
+      <c r="K101" s="2" t="n">
         <v>43581.13332175926</v>
       </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>9</v>
       </c>
-      <c r="N88" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O88" t="inlineStr">
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="P88" t="inlineStr">
+      <c r="P101" t="inlineStr">
         <is>
           <t>O</t>
         </is>
       </c>
-      <c r="Q88" t="inlineStr">
+      <c r="Q101" t="inlineStr">
         <is>
           <t>O</t>
         </is>

--- a/results/tp.xlsx
+++ b/results/tp.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q101"/>
+  <dimension ref="A1:Q92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1224,7 +1224,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>3291</v>
+        <v>3292</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1250,25 +1250,25 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>781</v>
+        <v>797</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>smartno8</t>
+          <t>smartno24</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>jaz imam nov obraz</t>
+          <t>jaz pa novo profilko</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>I have a new face</t>
+          <t>I have a new profile picture</t>
         </is>
       </c>
       <c r="K12" s="2" t="n">
-        <v>43574.15902777778</v>
+        <v>43574.15972222222</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>3292</v>
+        <v>3293</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1327,25 +1327,25 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>797</v>
+        <v>776</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>smartno24</t>
+          <t>smartno3</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>jaz pa novo profilko</t>
+          <t>ja jaz si pa skos spreminjam</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>I have a new profile picture</t>
+          <t>Yes I am constantly changing it</t>
         </is>
       </c>
       <c r="K13" s="2" t="n">
-        <v>43574.15972222222</v>
+        <v>43574.16041666667</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>3293</v>
+        <v>3294</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1404,21 +1404,21 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>smartno3</t>
+          <t>smartno8</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>ja jaz si pa skos spreminjam</t>
+          <t>j</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Yes I am constantly changing it</t>
+          <t>j</t>
         </is>
       </c>
       <c r="K14" s="2" t="n">
@@ -1444,18 +1444,18 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>O</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>3294</v>
+        <v>3295</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1481,21 +1481,21 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>781</v>
+        <v>797</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>smartno8</t>
+          <t>smartno24</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>kaj j</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>What j</t>
         </is>
       </c>
       <c r="K15" s="2" t="n">
@@ -1507,7 +1507,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1516,23 +1516,23 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>3295</v>
+        <v>3296</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1558,21 +1558,21 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>797</v>
+        <v>776</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>smartno24</t>
+          <t>smartno3</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>kaj j</t>
+          <t>kaj j?</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>What j</t>
+          <t>What j?</t>
         </is>
       </c>
       <c r="K16" s="2" t="n">
@@ -1584,7 +1584,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>3296</v>
+        <v>3297</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1635,21 +1635,21 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>smartno3</t>
+          <t>smartno8</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>kaj j?</t>
+          <t>jaz pa novga profija</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>What j?</t>
+          <t xml:space="preserve">I have a new profi </t>
         </is>
       </c>
       <c r="K17" s="2" t="n">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -1686,7 +1686,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>3297</v>
+        <v>3298</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1712,25 +1712,25 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>smartno8</t>
+          <t>smartno3</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>jaz pa novga profija</t>
+          <t>kdo si ti šmartno 24?</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t xml:space="preserve">I have a new profi </t>
+          <t>Who are you šmartno 24?</t>
         </is>
       </c>
       <c r="K18" s="2" t="n">
-        <v>43574.16041666667</v>
+        <v>43574.16111111111</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1747,23 +1747,23 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>IQ</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>3298</v>
+        <v>3300</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1798,16 +1798,16 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>kdo si ti šmartno 24?</t>
+          <t>kaj???????????????????????????????????????????????????????????????????????????????????????</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Who are you šmartno 24?</t>
+          <t>what ????????????????????????????????????????????????????</t>
         </is>
       </c>
       <c r="K19" s="2" t="n">
-        <v>43574.16111111111</v>
+        <v>43574.16180555556</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1829,18 +1829,18 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>IQ</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>3299</v>
+        <v>3302</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1866,25 +1866,25 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>781</v>
+        <v>797</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>smartno8</t>
+          <t>smartno24</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>zmotla sem se</t>
+          <t>kdo ste</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>I made a mistake</t>
+          <t xml:space="preserve">Who are you  </t>
         </is>
       </c>
       <c r="K20" s="2" t="n">
-        <v>43574.16111111111</v>
+        <v>43574.16180555556</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1901,23 +1901,23 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>IQ</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>3300</v>
+        <v>3303</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1930,38 +1930,38 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Kako bi Kekec na drugačen način prišel do zdravila? / In what other way could Kekec get the medicine?</t>
+          <t>Zakaj je Replja rekla Puhanki, da ni ravno ena najpametnejših? / Why did Replja say that Puhanka is "Not one of the smartest ones"?</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Book Club Three</t>
+          <t>Book Club One</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>776</v>
+        <v>785</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>smartno3</t>
+          <t>smartno12</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>kaj???????????????????????????????????????????????????????????????????????????????????????</t>
+          <t>zaradi</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>what ????????????????????????????????????????????????????</t>
+          <t>Because</t>
         </is>
       </c>
       <c r="K21" s="2" t="n">
-        <v>43574.16180555556</v>
+        <v>43574.14583333334</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -1994,7 +1994,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>3302</v>
+        <v>3314</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2007,11 +2007,11 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Kako bi Kekec na drugačen način prišel do zdravila? / In what other way could Kekec get the medicine?</t>
+          <t>Zakaj je Replja rekla Puhanki, da ni ravno ena najpametnejših? / Why did Replja say that Puhanka is "Not one of the smartest ones"?</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2020,25 +2020,25 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>797</v>
+        <v>781</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>smartno24</t>
+          <t>smartno8</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>kdo ste</t>
+          <t>nadaljuj z branjem</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Who are you  </t>
+          <t xml:space="preserve">Continue reading </t>
         </is>
       </c>
       <c r="K22" s="2" t="n">
-        <v>43574.16180555556</v>
+        <v>43574.14583333334</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -2055,23 +2055,23 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>IQ</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>3303</v>
+        <v>3315</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2093,25 +2093,25 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Book Club One</t>
+          <t>Book Club Three</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>785</v>
+        <v>797</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>smartno12</t>
+          <t>smartno24</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>zaradi</t>
+          <t>seveda</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Because</t>
+          <t>Of course</t>
         </is>
       </c>
       <c r="K23" s="2" t="n">
@@ -2148,7 +2148,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>3314</v>
+        <v>3317</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2183,16 +2183,16 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>nadaljuj z branjem</t>
+          <t>kdo si</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Continue reading </t>
+          <t>Who are you</t>
         </is>
       </c>
       <c r="K24" s="2" t="n">
-        <v>43574.14583333334</v>
+        <v>43574.14861111111</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -2209,23 +2209,23 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>IQ</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>3316</v>
+        <v>3318</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2251,25 +2251,25 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>smartno24</t>
+          <t>smartno18</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>seveda bom</t>
+          <t>enako kot smartno 18</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Of course, I will</t>
+          <t>Same as smartno 18</t>
         </is>
       </c>
       <c r="K25" s="2" t="n">
-        <v>43574.14652777778</v>
+        <v>43574.15416666667</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2302,7 +2302,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>3317</v>
+        <v>3320</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2328,25 +2328,25 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>smartno8</t>
+          <t>smartno3</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>kdo si</t>
+          <t>hecam se</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Who are you</t>
+          <t>I am kidding</t>
         </is>
       </c>
       <c r="K26" s="2" t="n">
-        <v>43574.14861111111</v>
+        <v>43574.15555555555</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -2363,23 +2363,23 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>IQ</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>3318</v>
+        <v>3322</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2405,25 +2405,25 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>791</v>
+        <v>776</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>smartno18</t>
+          <t>smartno3</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>enako kot smartno 18</t>
+          <t>A STE ŽE NARDILI VSE JAZ SEM</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Same as smartno 18</t>
+          <t xml:space="preserve">ARE YOU ALL FINISHED ALREADY I AM </t>
         </is>
       </c>
       <c r="K27" s="2" t="n">
-        <v>43574.15416666667</v>
+        <v>43574.15694444445</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2440,23 +2440,23 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
           <t>S</t>
         </is>
       </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>CO</t>
-        </is>
-      </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>3319</v>
+        <v>3323</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2482,25 +2482,25 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>776</v>
+        <v>791</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>smartno3</t>
+          <t>smartno18</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>mene niste sprejeli ali kaj?!</t>
+          <t>ne jaz nisem</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>You did not accept me?!</t>
+          <t>No I am not</t>
         </is>
       </c>
       <c r="K28" s="2" t="n">
-        <v>43574.15555555555</v>
+        <v>43574.15763888889</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -2508,7 +2508,7 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2517,23 +2517,23 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>A</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>S</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>3320</v>
+        <v>3324</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2568,16 +2568,16 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>hecam se</t>
+          <t>a super ti pridem pomagat ok?</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>I am kidding</t>
+          <t>Oh great I will come help you ok?</t>
         </is>
       </c>
       <c r="K29" s="2" t="n">
-        <v>43574.15555555555</v>
+        <v>43574.15763888889</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -2610,7 +2610,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>3321</v>
+        <v>3325</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2645,16 +2645,16 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>HELLO KARO P.</t>
+          <t>prihajam!!!</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t xml:space="preserve">HELLO KARO P. </t>
+          <t>I am coming!!!</t>
         </is>
       </c>
       <c r="K30" s="2" t="n">
-        <v>43574.15625</v>
+        <v>43574.15833333333</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -2676,7 +2676,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>CG</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
@@ -2687,7 +2687,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>3322</v>
+        <v>3326</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2713,25 +2713,25 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>smartno3</t>
+          <t>smartno8</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>A STE ŽE NARDILI VSE JAZ SEM</t>
+          <t>nehaj nejka</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t xml:space="preserve">ARE YOU ALL FINISHED ALREADY I AM </t>
+          <t>Stop it Nejka</t>
         </is>
       </c>
       <c r="K31" s="2" t="n">
-        <v>43574.15694444445</v>
+        <v>43574.15902777778</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -2748,23 +2748,23 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>3323</v>
+        <v>3339</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2777,38 +2777,38 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Zakaj je Replja rekla Puhanki, da ni ravno ena najpametnejših? / Why did Replja say that Puhanka is "Not one of the smartest ones"?</t>
+          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Book Club Three</t>
+          <t>Book Club Two</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>smartno18</t>
+          <t>smartno10</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>ne jaz nisem</t>
+          <t>hahahah dobra</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>No I am not</t>
+          <t xml:space="preserve">hahahah good one </t>
         </is>
       </c>
       <c r="K32" s="2" t="n">
-        <v>43574.15763888889</v>
+        <v>43574.13680555556</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -2816,7 +2816,7 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2825,23 +2825,23 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>3324</v>
+        <v>3344</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2854,38 +2854,38 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Zakaj je Replja rekla Puhanki, da ni ravno ena najpametnejših? / Why did Replja say that Puhanka is "Not one of the smartest ones"?</t>
+          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Book Club Three</t>
+          <t>Book Club Two</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>776</v>
+        <v>787</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>smartno3</t>
+          <t>smartno14</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>a super ti pridem pomagat ok?</t>
+          <t>gdsjcgrgfuzegzugerzgtfzgihaeojfdaskjfioshfiudsuhfgfiuhdhfiuvhfdshbiudhigerhughtriudghfiugjsgdhsfdkjhfdghfghhkjghgkhadghfvklhghdfhgjhklghb,b!!!!!!!!!!!!!!!!!</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Oh great I will come help you ok?</t>
+          <t>gibberish</t>
         </is>
       </c>
       <c r="K33" s="2" t="n">
-        <v>43574.15763888889</v>
+        <v>43574.14722222222</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2902,23 +2902,23 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>O</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>3325</v>
+        <v>3346</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2931,38 +2931,38 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Zakaj je Replja rekla Puhanki, da ni ravno ena najpametnejših? / Why did Replja say that Puhanka is "Not one of the smartest ones"?</t>
+          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Book Club Three</t>
+          <t>Book Club Two</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>776</v>
+        <v>787</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>smartno3</t>
+          <t>smartno14</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>prihajam!!!</t>
+          <t>Šmar</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>I am coming!!!</t>
+          <t>Šmar</t>
         </is>
       </c>
       <c r="K34" s="2" t="n">
-        <v>43574.15833333333</v>
+        <v>43574.14861111111</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -2970,7 +2970,7 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>3326</v>
+        <v>3347</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -3008,38 +3008,38 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Zakaj je Replja rekla Puhanki, da ni ravno ena najpametnejših? / Why did Replja say that Puhanka is "Not one of the smartest ones"?</t>
+          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Book Club Three</t>
+          <t>Book Club Two</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>smartno8</t>
+          <t>smartno14</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>nehaj nejka</t>
+          <t>Šmatno6       živjoooooo     kniga</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Stop it Nejka</t>
+          <t>Šmartno6 hellooooooo book</t>
         </is>
       </c>
       <c r="K35" s="2" t="n">
-        <v>43574.15902777778</v>
+        <v>43574.14930555555</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>CG</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
@@ -3072,7 +3072,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>3339</v>
+        <v>3356</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -3094,29 +3094,29 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Book Club Two</t>
+          <t>Book Club Three</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>smartno10</t>
+          <t>smartno8</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>hahahah dobra</t>
+          <t>živijo</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t xml:space="preserve">hahahah good one </t>
+          <t xml:space="preserve">Hello  </t>
         </is>
       </c>
       <c r="K36" s="2" t="n">
-        <v>43574.13680555556</v>
+        <v>43574.15416666667</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>CG</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
@@ -3149,7 +3149,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>3344</v>
+        <v>3357</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -3171,29 +3171,29 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Book Club Two</t>
+          <t>Book Club Three</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>787</v>
+        <v>776</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>smartno14</t>
+          <t>smartno3</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>gdsjcgrgfuzegzugerzgtfzgihaeojfdaskjfioshfiudsuhfgfiuhdhfiuvhfdshbiudhigerhughtriudghfiugjsgdhsfdkjhfdghfghhkjghgkhadghfvklhghdfhgjhklghb,b!!!!!!!!!!!!!!!!!</t>
+          <t>ja živjo</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>gibberish</t>
+          <t>Yes hello</t>
         </is>
       </c>
       <c r="K37" s="2" t="n">
-        <v>43574.14722222222</v>
+        <v>43574.15486111111</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3215,18 +3215,18 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>CG</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>3346</v>
+        <v>3358</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -3248,29 +3248,29 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Book Club Two</t>
+          <t>Book Club Three</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>smartno14</t>
+          <t>smartno8</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Šmar</t>
+          <t>hoj hoj</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Šmar</t>
+          <t>Hey hey</t>
         </is>
       </c>
       <c r="K38" s="2" t="n">
-        <v>43574.14861111111</v>
+        <v>43574.15555555555</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>CG</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
@@ -3303,7 +3303,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>3347</v>
+        <v>3364</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -3325,29 +3325,29 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Book Club Two</t>
+          <t>Book Club Four</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>smartno14</t>
+          <t>smartno6</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Šmatno6       živjoooooo     kniga</t>
+          <t>ŽŽŽŽŽŽŽŽŽŽŽŽŽŽŽŽŽŽŽŽŽžiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiivvvvvvvvvvvvvvvvvvvvvviiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiijjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjooooooooooooooooooooooooooooooooooooooooo</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Šmartno6 hellooooooo book</t>
+          <t>Hhhhhhhhhhhhhheeeeeeeeeellllllllllllooooooooooo</t>
         </is>
       </c>
       <c r="K39" s="2" t="n">
-        <v>43574.14930555555</v>
+        <v>43574.14375</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>3356</v>
+        <v>3365</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -3402,29 +3402,29 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Book Club Three</t>
+          <t>Book Club Four</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>781</v>
+        <v>801</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>smartno8</t>
+          <t>MetaHojsSmartno</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>živijo</t>
+          <t>Filip, nadaljuj z branjem.</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hello  </t>
+          <t xml:space="preserve">Filip, continue reading. </t>
         </is>
       </c>
       <c r="K40" s="2" t="n">
-        <v>43574.15416666667</v>
+        <v>43574.14444444444</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3446,18 +3446,18 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>CG</t>
+          <t>M</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>M</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>3357</v>
+        <v>3367</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -3479,29 +3479,29 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Book Club Three</t>
+          <t>Book Club Four</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>smartno3</t>
+          <t>smartno6</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>ja živjo</t>
+          <t xml:space="preserve">smartno14     pošli  mi   odgovor                                                                         </t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Yes hello</t>
+          <t>smartno14 send me the answer</t>
         </is>
       </c>
       <c r="K41" s="2" t="n">
-        <v>43574.15486111111</v>
+        <v>43574.14930555555</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3523,7 +3523,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>CG</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
@@ -3534,7 +3534,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>3358</v>
+        <v>3386</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -3547,38 +3547,38 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Book Club Three</t>
+          <t>Book Club Two</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>smartno8</t>
+          <t>smartno10</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>hoj hoj</t>
+          <t>VEM!!!!HAHAHAHAH</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Hey hey</t>
+          <t>I KNOW!!!! HAHAHAHAHAH</t>
         </is>
       </c>
       <c r="K42" s="2" t="n">
-        <v>43574.15555555555</v>
+        <v>43574.125</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>CG</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
@@ -3611,7 +3611,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>3359</v>
+        <v>3388</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -3624,38 +3624,38 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Book Club Three</t>
+          <t>Book Club Two</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>smartno8</t>
+          <t>smartno14</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>jaz imam nov obraz</t>
+          <t>t                                                                                  uuioopošpđšđ</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>I have a new face</t>
+          <t>gibberish</t>
         </is>
       </c>
       <c r="K43" s="2" t="n">
-        <v>43574.15694444445</v>
+        <v>43574.12708333333</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -3677,18 +3677,18 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>O</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>3364</v>
+        <v>3389</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -3701,38 +3701,38 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Book Club Four</t>
+          <t>Book Club Two</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>779</v>
+        <v>794</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>smartno6</t>
+          <t>smartno21</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>ŽŽŽŽŽŽŽŽŽŽŽŽŽŽŽŽŽŽŽŽŽžiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiivvvvvvvvvvvvvvvvvvvvvviiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiijjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjooooooooooooooooooooooooooooooooooooooooo</t>
+          <t>filip</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Hhhhhhhhhhhhhheeeeeeeeeellllllllllllooooooooooo</t>
+          <t xml:space="preserve">Filip  </t>
         </is>
       </c>
       <c r="K44" s="2" t="n">
-        <v>43574.14375</v>
+        <v>43574.12847222222</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -3740,7 +3740,7 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>CG</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
@@ -3765,7 +3765,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>3365</v>
+        <v>3390</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -3778,16 +3778,16 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Book Club Four</t>
+          <t>Book Club Two</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -3800,16 +3800,16 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Filip, nadaljuj z branjem.</t>
+          <t>Filip prosim nadaljuj z branjem.</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Filip, continue reading. </t>
+          <t xml:space="preserve">Filip, please continue reading. </t>
         </is>
       </c>
       <c r="K45" s="2" t="n">
-        <v>43574.14444444444</v>
+        <v>43574.12986111111</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>3367</v>
+        <v>3391</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -3855,38 +3855,38 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Book Club Four</t>
+          <t>Book Club Two</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>779</v>
+        <v>787</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>smartno6</t>
+          <t>smartno14</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t xml:space="preserve">smartno14     pošli  mi   odgovor                                                                         </t>
+          <t>Koliko si stara                    odpiši!</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>smartno14 send me the answer</t>
+          <t>How old are you      answer me!!!</t>
         </is>
       </c>
       <c r="K46" s="2" t="n">
-        <v>43574.14930555555</v>
+        <v>43574.13055555556</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3903,7 +3903,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -3919,7 +3919,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>3386</v>
+        <v>3392</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -3945,25 +3945,21 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>783</v>
+        <v>794</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>smartno10</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>VEM!!!!HAHAHAHAH</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>I KNOW!!!! HAHAHAHAHAH</t>
-        </is>
+          <t>smartno21</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>1244</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1244</v>
       </c>
       <c r="K47" s="2" t="n">
-        <v>43574.125</v>
+        <v>43574.13125</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -3985,18 +3981,18 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>O</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>3388</v>
+        <v>3393</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -4022,25 +4018,21 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>smartno14</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>t                                                                                  uuioopošpđšđ</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>gibberish</t>
-        </is>
+          <t>smartno17</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>9</v>
+      </c>
+      <c r="J48" t="n">
+        <v>9</v>
       </c>
       <c r="K48" s="2" t="n">
-        <v>43574.12708333333</v>
+        <v>43574.13125</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -4073,7 +4065,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>3389</v>
+        <v>3398</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -4108,16 +4100,16 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>filip</t>
+          <t>kaj</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Filip  </t>
+          <t>What</t>
         </is>
       </c>
       <c r="K49" s="2" t="n">
-        <v>43574.12847222222</v>
+        <v>43574.13680555556</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -4125,7 +4117,7 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -4134,7 +4126,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -4150,7 +4142,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>3390</v>
+        <v>3400</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -4176,25 +4168,25 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>801</v>
+        <v>778</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>MetaHojsSmartno</t>
+          <t>smartno5</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Filip prosim nadaljuj z branjem.</t>
+          <t>ja dobra mideja smartno21</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Filip, please continue reading. </t>
+          <t>Yes that's a good idea smartno21</t>
         </is>
       </c>
       <c r="K50" s="2" t="n">
-        <v>43574.12986111111</v>
+        <v>43574.15972222222</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -4202,7 +4194,7 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -4216,18 +4208,18 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>3391</v>
+        <v>3406</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -4249,29 +4241,29 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Book Club Two</t>
+          <t>Book Club Three</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>smartno14</t>
+          <t>smartno9</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Koliko si stara                    odpiši!</t>
+          <t>kay jenaro0999zaasukgdy</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>How old are you      answer me!!!</t>
+          <t>gibberish</t>
         </is>
       </c>
       <c r="K51" s="2" t="n">
-        <v>43574.13055555556</v>
+        <v>43574.12638888889</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -4288,23 +4280,23 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>O</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>3392</v>
+        <v>3410</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -4326,25 +4318,29 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Book Club Two</t>
+          <t>Book Club Three</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>794</v>
+        <v>782</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>smartno21</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
-        <v>1244</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1244</v>
+          <t>smartno9</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>&lt;JAS SEM JAKOB</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>I AM JAKOB</t>
+        </is>
       </c>
       <c r="K52" s="2" t="n">
-        <v>43574.13125</v>
+        <v>43574.12986111111</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -4366,18 +4362,18 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>II</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>3393</v>
+        <v>3411</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -4399,25 +4395,29 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Book Club Two</t>
+          <t>Book Club Three</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>smartno17</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
-        <v>9</v>
-      </c>
-      <c r="J53" t="n">
-        <v>9</v>
+          <t>smartno9</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>HHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHNNNNNHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHH</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>HIHIHIHIHIHIHIIHIHIIHIHIHIHIHIIHIHI</t>
+        </is>
       </c>
       <c r="K53" s="2" t="n">
-        <v>43574.13125</v>
+        <v>43574.12986111111</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -4439,18 +4439,18 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>3398</v>
+        <v>3413</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -4472,29 +4472,29 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Book Club Two</t>
+          <t>Book Club Three</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>794</v>
+        <v>782</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>smartno21</t>
+          <t>smartno9</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>kaj</t>
+          <t>JAS SEM UBISTV FILIP</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>What</t>
+          <t>I AM ACTUALLY FILIP</t>
         </is>
       </c>
       <c r="K54" s="2" t="n">
-        <v>43574.13680555556</v>
+        <v>43574.13263888889</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4511,23 +4511,23 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>II</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>3400</v>
+        <v>3414</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -4549,29 +4549,29 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Book Club Two</t>
+          <t>Book Club Three</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>smartno5</t>
+          <t>smartno9</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>ja dobra mideja smartno21</t>
+          <t>NEEEEE</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Yes that's a good idea smartno21</t>
+          <t>NOOOOOOOOOO</t>
         </is>
       </c>
       <c r="K55" s="2" t="n">
-        <v>43574.15972222222</v>
+        <v>43574.13611111111</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>3406</v>
+        <v>3415</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -4637,18 +4637,14 @@
           <t>smartno9</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>kay jenaro0999zaasukgdy</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>gibberish</t>
-        </is>
+      <c r="I56" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J56" t="n">
+        <v>3.3</v>
       </c>
       <c r="K56" s="2" t="n">
-        <v>43574.12638888889</v>
+        <v>43574.13680555556</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -4656,7 +4652,7 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4681,7 +4677,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>3410</v>
+        <v>3416</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -4707,25 +4703,25 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>smartno9</t>
+          <t>smartno8</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>&lt;JAS SEM JAKOB</t>
+          <t>nehaj mi pošiljati sporočila</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>I AM JAKOB</t>
+          <t>Oh you!</t>
         </is>
       </c>
       <c r="K57" s="2" t="n">
-        <v>43574.12986111111</v>
+        <v>43574.14791666667</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -4733,7 +4729,7 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4747,18 +4743,18 @@
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>3411</v>
+        <v>3417</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -4784,25 +4780,25 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>smartno9</t>
+          <t>smartno3</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>HHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHNNNNNHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHH</t>
+          <t>oh ti !!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!! Kdor koli si že</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>HIHIHIHIHIHIHIIHIHIIHIHIHIHIHIIHIHI</t>
+          <t>Oh you!!!!!!!!!!!!!!!! Whoever you are</t>
         </is>
       </c>
       <c r="K58" s="2" t="n">
-        <v>43574.12986111111</v>
+        <v>43574.15416666667</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -4810,7 +4806,7 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4835,7 +4831,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>3413</v>
+        <v>3418</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -4861,25 +4857,25 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>smartno9</t>
+          <t>smartno3</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>JAS SEM UBISTV FILIP</t>
+          <t>tiiiiiiiiiiii smartno 9</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>I AM ACTUALLY FILIP</t>
+          <t>Yooooouuuuuu smartno 9</t>
         </is>
       </c>
       <c r="K59" s="2" t="n">
-        <v>43574.13263888889</v>
+        <v>43574.1625</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -4887,7 +4883,7 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4901,18 +4897,18 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>3414</v>
+        <v>3420</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -4938,25 +4934,25 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>782</v>
+        <v>797</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>smartno9</t>
+          <t>smartno24</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>NEEEEE</t>
+          <t>zakaj</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>NOOOOOOOOOO</t>
+          <t xml:space="preserve">Why  </t>
         </is>
       </c>
       <c r="K60" s="2" t="n">
-        <v>43574.13611111111</v>
+        <v>43574.16388888889</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -4964,7 +4960,7 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4973,7 +4969,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
@@ -4989,7 +4985,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>3415</v>
+        <v>3433</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -5011,25 +5007,29 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Book Club Three</t>
+          <t>Book Club Four</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>smartno9</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J61" t="n">
-        <v>3.3</v>
+          <t>smartno11</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>okej bom probala</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Okay I will try</t>
+        </is>
       </c>
       <c r="K61" s="2" t="n">
-        <v>43574.13680555556</v>
+        <v>43574.12777777778</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -5051,18 +5051,18 @@
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>3416</v>
+        <v>3435</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -5084,29 +5084,29 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Book Club Three</t>
+          <t>Book Club Four</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>smartno8</t>
+          <t>smartno6</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>nehaj mi pošiljati sporočila</t>
+          <t>bu    huuuuuuuuuuu       uuuuuuuuuuuuuuuuuuuu</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Oh you!</t>
+          <t>bu    huuuuuuuuuuu       uuuuuuuuuuuuuuuuuuuu</t>
         </is>
       </c>
       <c r="K62" s="2" t="n">
-        <v>43574.14791666667</v>
+        <v>43574.13055555556</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -5128,18 +5128,18 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>O</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>3417</v>
+        <v>3436</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -5161,29 +5161,29 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Book Club Three</t>
+          <t>Book Club Four</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>776</v>
+        <v>801</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>smartno3</t>
+          <t>MetaHojsSmartno</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>oh ti !!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!! Kdor koli si že</t>
+          <t>Šmartno 6, prosim nadaljuj z branjem zgodbe.</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Oh you!!!!!!!!!!!!!!!! Whoever you are</t>
+          <t>Šmartno 6, please continue reading the story</t>
         </is>
       </c>
       <c r="K63" s="2" t="n">
-        <v>43574.15416666667</v>
+        <v>43574.13055555556</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -5191,7 +5191,7 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -5205,18 +5205,18 @@
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>M</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>M</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>3418</v>
+        <v>3438</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -5238,29 +5238,29 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Book Club Three</t>
+          <t>Book Club Four</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>smartno3</t>
+          <t>smartno6</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>tiiiiiiiiiiii smartno 9</t>
+          <t>NEHI  MI   &lt;&lt;ODPISATI</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Yooooouuuuuu smartno 9</t>
+          <t>STOP WRITING BACK</t>
         </is>
       </c>
       <c r="K64" s="2" t="n">
-        <v>43574.1625</v>
+        <v>43574.13194444445</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -5268,7 +5268,7 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -5293,7 +5293,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>3420</v>
+        <v>3439</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -5315,29 +5315,29 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Book Club Three</t>
+          <t>Book Club Four</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>797</v>
+        <v>779</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>smartno24</t>
+          <t>smartno6</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>zakaj</t>
+          <t>bom</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Why  </t>
+          <t>I will</t>
         </is>
       </c>
       <c r="K65" s="2" t="n">
-        <v>43574.16388888889</v>
+        <v>43574.13263888889</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -5345,7 +5345,7 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5354,7 +5354,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
@@ -5370,7 +5370,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>3421</v>
+        <v>3443</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -5379,42 +5379,42 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Smartno</t>
+          <t>smartnoB</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+          <t>Kako bi Kekec na drugačen način prišel do zdravila?</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Book Club Three</t>
+          <t>Book Club Two</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>781</v>
+        <v>824</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>smartno8</t>
+          <t>smartnoB20</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>ker sem pač profi</t>
+          <t>HEJ NANA</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Because I am a pro</t>
+          <t>HEY NANA  (girl's name)</t>
         </is>
       </c>
       <c r="K66" s="2" t="n">
-        <v>43574.16458333333</v>
+        <v>43581.1533449074</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5431,12 +5431,12 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>CG</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
@@ -5447,7 +5447,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>3422</v>
+        <v>3444</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -5456,42 +5456,42 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Smartno</t>
+          <t>smartnoB</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+          <t>Kako bi Kekec na drugačen način prišel do zdravila?</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Book Club Three</t>
+          <t>Book Club Two</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>781</v>
+        <v>824</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>smartno8</t>
+          <t>smartnoB20</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>izključ računalnik</t>
+          <t>EEE</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Turn off your computer</t>
+          <t>EEE</t>
         </is>
       </c>
       <c r="K67" s="2" t="n">
-        <v>43574.16458333333</v>
+        <v>43581.15539351852</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -5499,7 +5499,7 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5513,18 +5513,18 @@
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>O</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>3428</v>
+        <v>3446</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -5533,15 +5533,15 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Smartno</t>
+          <t>smartnoB</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+          <t>Kako bi Kekec na drugačen način prišel do zdravila?</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -5550,25 +5550,25 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>792</v>
+        <v>811</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>smartno19</t>
+          <t>smartnoB7</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>da se strinjam s smartno11</t>
+          <t>Tako</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Yes I agree with you Smartno11</t>
+          <t xml:space="preserve">There you go </t>
         </is>
       </c>
       <c r="K68" s="2" t="n">
-        <v>43574.125</v>
+        <v>43581.15576388889</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>3431</v>
+        <v>3454</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -5610,42 +5610,42 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Smartno</t>
+          <t>smartnoB</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+          <t>Zakaj je Replja rekla Puhanki, da ni ravno ena najpametnejših? / Why did Replja say that Puhanka is "Not one of the smartest ones"?</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Book Club Four</t>
+          <t>Book Club One</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>786</v>
+        <v>816</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>smartno13</t>
+          <t>smartnoB12</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>jaz se tudi strinjam z smartno 11</t>
+          <t>kdo ste</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>I also agree with Smartno11</t>
+          <t>Who are you</t>
         </is>
       </c>
       <c r="K69" s="2" t="n">
-        <v>43574.12638888889</v>
+        <v>43581.16278935185</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5662,23 +5662,23 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>IQ</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>3433</v>
+        <v>3457</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -5687,42 +5687,42 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Smartno</t>
+          <t>smartnoB</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+          <t>Zakaj je Replja rekla Puhanki, da ni ravno ena najpametnejših? / Why did Replja say that Puhanka is "Not one of the smartest ones"?</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Book Club Four</t>
+          <t>Book Club Two</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>784</v>
+        <v>824</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>smartno11</t>
+          <t>smartnoB20</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>okej bom probala</t>
+          <t>ha,ha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Okay I will try</t>
+          <t xml:space="preserve">ha, ha. </t>
         </is>
       </c>
       <c r="K70" s="2" t="n">
-        <v>43574.12777777778</v>
+        <v>43581.14582175926</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>3434</v>
+        <v>3458</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -5764,42 +5764,42 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Smartno</t>
+          <t>smartnoB</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+          <t>Zakaj je Replja rekla Puhanki, da ni ravno ena najpametnejših? / Why did Replja say that Puhanka is "Not one of the smartest ones"?</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Book Club Four</t>
+          <t>Book Club Two</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>779</v>
+        <v>813</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>smartno6</t>
+          <t>smartnoB9</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>ha ,ha,ha,ha!!!</t>
+          <t>NE POVEM.</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>ha ,ha,ha,ha!!!</t>
+          <t>I AM NOT TELLING</t>
         </is>
       </c>
       <c r="K71" s="2" t="n">
-        <v>43574.12916666667</v>
+        <v>43581.1466087963</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>3435</v>
+        <v>3459</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -5841,42 +5841,42 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Smartno</t>
+          <t>smartnoB</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+          <t>Zakaj je Replja rekla Puhanki, da ni ravno ena najpametnejših? / Why did Replja say that Puhanka is "Not one of the smartest ones"?</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Book Club Four</t>
+          <t>Book Club Two</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>779</v>
+        <v>824</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>smartno6</t>
+          <t>smartnoB20</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>bu    huuuuuuuuuuu       uuuuuuuuuuuuuuuuuuuu</t>
+          <t>OMG</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>bu    huuuuuuuuuuu       uuuuuuuuuuuuuuuuuuuu</t>
+          <t>OMG</t>
         </is>
       </c>
       <c r="K72" s="2" t="n">
-        <v>43574.13055555556</v>
+        <v>43581.14663194444</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5898,18 +5898,18 @@
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>3438</v>
+        <v>3466</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -5918,15 +5918,15 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Smartno</t>
+          <t>smartnoB</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+          <t>Zakaj je Replja rekla Puhanki, da ni ravno ena najpametnejših? / Why did Replja say that Puhanka is "Not one of the smartest ones"?</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5935,25 +5935,25 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>779</v>
+        <v>822</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>smartno6</t>
+          <t>smartnoB18</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>NEHI  MI   &lt;&lt;ODPISATI</t>
+          <t>pp</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>STOP WRITING BACK</t>
+          <t>pp</t>
         </is>
       </c>
       <c r="K73" s="2" t="n">
-        <v>43574.13194444445</v>
+        <v>43581.14559027777</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5975,18 +5975,18 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>O</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>3443</v>
+        <v>3467</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -5999,38 +5999,38 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Kako bi Kekec na drugačen način prišel do zdravila?</t>
+          <t>Zakaj je Replja rekla Puhanki, da ni ravno ena najpametnejših? / Why did Replja say that Puhanka is "Not one of the smartest ones"?</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Book Club Two</t>
+          <t>Book Club Four</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>smartnoB20</t>
+          <t>smartnoB10</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>HEJ NANA</t>
+          <t>Ne povem.</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>HEY NANA  (girl's name)</t>
+          <t>I am not telling</t>
         </is>
       </c>
       <c r="K74" s="2" t="n">
-        <v>43581.1533449074</v>
+        <v>43581.14689814814</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>CG</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
@@ -6063,7 +6063,7 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>3444</v>
+        <v>3488</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -6076,47 +6076,47 @@
         </is>
       </c>
       <c r="D75" t="n">
+        <v>7</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Book Club Three</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>826</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>smartnoB22</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>kdo si ti</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Who are you</t>
+        </is>
+      </c>
+      <c r="K75" s="2" t="n">
+        <v>43581.14258101852</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>5</v>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Kako bi Kekec na drugačen način prišel do zdravila?</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Book Club Two</t>
-        </is>
-      </c>
-      <c r="G75" t="n">
-        <v>824</v>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>smartnoB20</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>EEE</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>EEE</t>
-        </is>
-      </c>
-      <c r="K75" s="2" t="n">
-        <v>43581.15539351852</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>17</v>
-      </c>
       <c r="N75" t="inlineStr">
         <is>
           <t>No</t>
@@ -6124,23 +6124,23 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>IQ</t>
         </is>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>3446</v>
+        <v>3489</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -6153,47 +6153,47 @@
         </is>
       </c>
       <c r="D76" t="n">
+        <v>7</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Book Club Three</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>818</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>smartnoB14</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Kdo si ti</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Who are you</t>
+        </is>
+      </c>
+      <c r="K76" s="2" t="n">
+        <v>43581.15225694444</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>5</v>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Kako bi Kekec na drugačen način prišel do zdravila?</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Book Club Four</t>
-        </is>
-      </c>
-      <c r="G76" t="n">
-        <v>811</v>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>smartnoB7</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>Tako</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t xml:space="preserve">There you go </t>
-        </is>
-      </c>
-      <c r="K76" s="2" t="n">
-        <v>43581.15576388889</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>14</v>
-      </c>
       <c r="N76" t="inlineStr">
         <is>
           <t>No</t>
@@ -6201,23 +6201,23 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>IQ</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>3454</v>
+        <v>3490</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -6230,38 +6230,38 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Zakaj je Replja rekla Puhanki, da ni ravno ena najpametnejših? / Why did Replja say that Puhanka is "Not one of the smartest ones"?</t>
+          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Book Club One</t>
+          <t>Book Club Three</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>smartnoB12</t>
+          <t>smartnoB14</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>kdo ste</t>
+          <t>ena punca</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Who are you</t>
+          <t>I am a girl</t>
         </is>
       </c>
       <c r="K77" s="2" t="n">
-        <v>43581.16278935185</v>
+        <v>43581.15503472222</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -6278,12 +6278,12 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>A</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>IQ</t>
+          <t>IA</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr">
@@ -6294,7 +6294,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>3457</v>
+        <v>3497</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -6307,38 +6307,38 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Zakaj je Replja rekla Puhanki, da ni ravno ena najpametnejših? / Why did Replja say that Puhanka is "Not one of the smartest ones"?</t>
+          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Book Club Two</t>
+          <t>Book Club Four</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>824</v>
+        <v>835</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>smartnoB20</t>
+          <t>LaraHodejSmartnoB</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>ha,ha</t>
+          <t>Odlične ideje!</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t xml:space="preserve">ha, ha. </t>
+          <t>Excellent ideas!</t>
         </is>
       </c>
       <c r="K78" s="2" t="n">
-        <v>43581.14582175926</v>
+        <v>43581.13016203704</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -6360,18 +6360,18 @@
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>ME</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>M</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>3458</v>
+        <v>3498</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -6384,38 +6384,38 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Zakaj je Replja rekla Puhanki, da ni ravno ena najpametnejših? / Why did Replja say that Puhanka is "Not one of the smartest ones"?</t>
+          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Book Club Two</t>
+          <t>Book Club Four</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>813</v>
+        <v>822</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>smartnoB9</t>
+          <t>smartnoB18</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>NE POVEM.</t>
+          <t>kdo si</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>I AM NOT TELLING</t>
+          <t xml:space="preserve">Who are you </t>
         </is>
       </c>
       <c r="K79" s="2" t="n">
-        <v>43581.1466087963</v>
+        <v>43581.13756944444</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -6423,7 +6423,7 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6432,23 +6432,23 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>IQ</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>3459</v>
+        <v>3499</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -6461,38 +6461,38 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Zakaj je Replja rekla Puhanki, da ni ravno ena najpametnejših? / Why did Replja say that Puhanka is "Not one of the smartest ones"?</t>
+          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Book Club Two</t>
+          <t>Book Club Four</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>smartnoB20</t>
+          <t>smartnoB23</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>OMG</t>
+          <t>smartnoB23</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>OMG</t>
+          <t>SmartnoB23</t>
         </is>
       </c>
       <c r="K80" s="2" t="n">
-        <v>43581.14663194444</v>
+        <v>43581.14811342592</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -6500,7 +6500,7 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6509,23 +6509,23 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>A</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>IA</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>3466</v>
+        <v>3503</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -6538,47 +6538,47 @@
         </is>
       </c>
       <c r="D81" t="n">
+        <v>8</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Book Club One</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>816</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>smartnoB12</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Ares</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oh really </t>
+        </is>
+      </c>
+      <c r="K81" s="2" t="n">
+        <v>43581.12109953703</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>6</v>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Zakaj je Replja rekla Puhanki, da ni ravno ena najpametnejših? / Why did Replja say that Puhanka is "Not one of the smartest ones"?</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Book Club Four</t>
-        </is>
-      </c>
-      <c r="G81" t="n">
-        <v>822</v>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>smartnoB18</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>pp</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>pp</t>
-        </is>
-      </c>
-      <c r="K81" s="2" t="n">
-        <v>43581.14559027777</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>10</v>
-      </c>
       <c r="N81" t="inlineStr">
         <is>
           <t>No</t>
@@ -6591,18 +6591,18 @@
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>3467</v>
+        <v>3504</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -6615,47 +6615,47 @@
         </is>
       </c>
       <c r="D82" t="n">
+        <v>8</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Book Club One</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>816</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>smartnoB12</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Ali si punca jaz sem</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Are you a girl I am</t>
+        </is>
+      </c>
+      <c r="K82" s="2" t="n">
+        <v>43581.12274305556</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>6</v>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>Zakaj je Replja rekla Puhanki, da ni ravno ena najpametnejših? / Why did Replja say that Puhanka is "Not one of the smartest ones"?</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Book Club Four</t>
-        </is>
-      </c>
-      <c r="G82" t="n">
-        <v>814</v>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>smartnoB10</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>Ne povem.</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>I am not telling</t>
-        </is>
-      </c>
-      <c r="K82" s="2" t="n">
-        <v>43581.14689814814</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>16</v>
-      </c>
       <c r="N82" t="inlineStr">
         <is>
           <t>No</t>
@@ -6663,7 +6663,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
@@ -6679,7 +6679,7 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>3478</v>
+        <v>3511</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -6692,11 +6692,11 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -6714,16 +6714,16 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>AMPAK POTEM SI UMAZAN</t>
+          <t>Hvala</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>BUT THEN YOU'D BE DIRTY</t>
+          <t xml:space="preserve">Thank you  </t>
         </is>
       </c>
       <c r="K83" s="2" t="n">
-        <v>43581.1424537037</v>
+        <v>43581.13268518518</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6745,18 +6745,18 @@
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>DAA</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>3488</v>
+        <v>3513</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -6769,38 +6769,38 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Book Club Three</t>
+          <t>Book Club One</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>smartnoB22</t>
+          <t>smartnoB19</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>kdo si ti</t>
+          <t>Arnes ali si fant ali punca</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Who are you</t>
+          <t>Oh really are you a boy or a girl</t>
         </is>
       </c>
       <c r="K84" s="2" t="n">
-        <v>43581.14258101852</v>
+        <v>43581.13376157408</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6822,18 +6822,18 @@
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>IQ</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>3489</v>
+        <v>3519</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -6846,38 +6846,38 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Book Club Three</t>
+          <t>Book Club Two</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>818</v>
+        <v>824</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>smartnoB14</t>
+          <t>smartnoB20</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Kdo si ti</t>
+          <t>filip</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Who are you</t>
+          <t xml:space="preserve">Filip </t>
         </is>
       </c>
       <c r="K85" s="2" t="n">
-        <v>43581.15225694444</v>
+        <v>43581.12278935185</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6894,23 +6894,23 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>IQ</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>3490</v>
+        <v>3524</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -6923,38 +6923,38 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Book Club Three</t>
+          <t>Book Club Two</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>818</v>
+        <v>825</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>smartnoB14</t>
+          <t>smartnoB21</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>ena punca</t>
+          <t>ha ha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>I am a girl</t>
+          <t xml:space="preserve">Ha ha </t>
         </is>
       </c>
       <c r="K86" s="2" t="n">
-        <v>43581.15503472222</v>
+        <v>43593.56542824074</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6971,23 +6971,23 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>IA</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>3498</v>
+        <v>3530</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -7000,11 +7000,11 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -7022,16 +7022,16 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>kdo si</t>
+          <t>kdo si ti</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t xml:space="preserve">Who are you </t>
+          <t>Who are you</t>
         </is>
       </c>
       <c r="K87" s="2" t="n">
-        <v>43581.13756944444</v>
+        <v>43581.1207175926</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>3499</v>
+        <v>3531</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -7077,11 +7077,11 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -7090,25 +7090,25 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>827</v>
+        <v>811</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>smartnoB23</t>
+          <t>smartnoB7</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>smartnoB23</t>
+          <t>Jaz sem smartnoB7</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>SmartnoB23</t>
+          <t>I am smartnoB7</t>
         </is>
       </c>
       <c r="K88" s="2" t="n">
-        <v>43581.14811342592</v>
+        <v>43581.12131944444</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -7141,7 +7141,7 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>3503</v>
+        <v>3532</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -7163,29 +7163,29 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Book Club One</t>
+          <t>Book Club Four</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>816</v>
+        <v>822</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>smartnoB12</t>
+          <t>smartnoB18</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Ares</t>
+          <t>lllllllll</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oh really </t>
+          <t>IIIIIIIII</t>
         </is>
       </c>
       <c r="K89" s="2" t="n">
-        <v>43581.12109953703</v>
+        <v>43581.12248842593</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -7207,18 +7207,18 @@
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>O</t>
         </is>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>3504</v>
+        <v>3536</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -7240,29 +7240,29 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Book Club One</t>
+          <t>Book Club Four</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>816</v>
+        <v>827</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>smartnoB12</t>
+          <t>smartnoB23</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Ali si punca jaz sem</t>
+          <t>jaz sem smartnoB23</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Are you a girl I am</t>
+          <t>I am SmartnoB23</t>
         </is>
       </c>
       <c r="K90" s="2" t="n">
-        <v>43581.12274305556</v>
+        <v>43581.13034722222</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -7279,23 +7279,23 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>II</t>
         </is>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>3511</v>
+        <v>3538</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -7317,29 +7317,29 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Book Club One</t>
+          <t>Book Club Four</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>823</v>
+        <v>814</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>smartnoB19</t>
+          <t>smartnoB10</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Hvala</t>
+          <t>a</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thank you  </t>
+          <t>a</t>
         </is>
       </c>
       <c r="K91" s="2" t="n">
-        <v>43581.13268518518</v>
+        <v>43581.13325231482</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -7347,7 +7347,7 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -7361,18 +7361,18 @@
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>O</t>
         </is>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>3513</v>
+        <v>3539</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -7394,29 +7394,29 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Book Club One</t>
+          <t>Book Club Four</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>823</v>
+        <v>814</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>smartnoB19</t>
+          <t>smartnoB10</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Arnes ali si fant ali punca</t>
+          <t>a</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Oh really are you a boy or a girl</t>
+          <t>a</t>
         </is>
       </c>
       <c r="K92" s="2" t="n">
-        <v>43581.13376157408</v>
+        <v>43581.13332175926</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         </is>
       </c>
       <c r="M92" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7433,708 +7433,15 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>O</t>
         </is>
       </c>
       <c r="Q92" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>3519</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>OŠ Šmartno pod Šmarno goro</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>smartnoB</t>
-        </is>
-      </c>
-      <c r="D93" t="n">
-        <v>8</v>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Book Club Two</t>
-        </is>
-      </c>
-      <c r="G93" t="n">
-        <v>824</v>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>smartnoB20</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>filip</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Filip </t>
-        </is>
-      </c>
-      <c r="K93" s="2" t="n">
-        <v>43581.12278935185</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>6</v>
-      </c>
-      <c r="N93" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="P93" t="inlineStr">
-        <is>
-          <t>CO</t>
-        </is>
-      </c>
-      <c r="Q93" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>3524</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>OŠ Šmartno pod Šmarno goro</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>smartnoB</t>
-        </is>
-      </c>
-      <c r="D94" t="n">
-        <v>8</v>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Book Club Two</t>
-        </is>
-      </c>
-      <c r="G94" t="n">
-        <v>825</v>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>smartnoB21</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>ha ha</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ha ha </t>
-        </is>
-      </c>
-      <c r="K94" s="2" t="n">
-        <v>43593.56542824074</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>6</v>
-      </c>
-      <c r="N94" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O94" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="P94" t="inlineStr">
-        <is>
-          <t>CO</t>
-        </is>
-      </c>
-      <c r="Q94" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>3526</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>OŠ Šmartno pod Šmarno goro</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>smartnoB</t>
-        </is>
-      </c>
-      <c r="D95" t="n">
-        <v>8</v>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Book Club Three</t>
-        </is>
-      </c>
-      <c r="G95" t="n">
-        <v>826</v>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>smartnoB22</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>pri kateri zgodbi si</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>At what story are you?</t>
-        </is>
-      </c>
-      <c r="K95" s="2" t="n">
-        <v>43581.12908564815</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>6</v>
-      </c>
-      <c r="N95" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O95" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="P95" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="Q95" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>3530</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>OŠ Šmartno pod Šmarno goro</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>smartnoB</t>
-        </is>
-      </c>
-      <c r="D96" t="n">
-        <v>8</v>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Book Club Four</t>
-        </is>
-      </c>
-      <c r="G96" t="n">
-        <v>822</v>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>smartnoB18</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>kdo si ti</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>Who are you</t>
-        </is>
-      </c>
-      <c r="K96" s="2" t="n">
-        <v>43581.1207175926</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>6</v>
-      </c>
-      <c r="N96" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O96" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="P96" t="inlineStr">
-        <is>
-          <t>IQ</t>
-        </is>
-      </c>
-      <c r="Q96" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>3531</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>OŠ Šmartno pod Šmarno goro</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>smartnoB</t>
-        </is>
-      </c>
-      <c r="D97" t="n">
-        <v>8</v>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Book Club Four</t>
-        </is>
-      </c>
-      <c r="G97" t="n">
-        <v>811</v>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>smartnoB7</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>Jaz sem smartnoB7</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>I am smartnoB7</t>
-        </is>
-      </c>
-      <c r="K97" s="2" t="n">
-        <v>43581.12131944444</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>9</v>
-      </c>
-      <c r="N97" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O97" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="P97" t="inlineStr">
-        <is>
-          <t>IA</t>
-        </is>
-      </c>
-      <c r="Q97" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>3532</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>OŠ Šmartno pod Šmarno goro</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>smartnoB</t>
-        </is>
-      </c>
-      <c r="D98" t="n">
-        <v>8</v>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Book Club Four</t>
-        </is>
-      </c>
-      <c r="G98" t="n">
-        <v>822</v>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>smartnoB18</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>lllllllll</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>IIIIIIIII</t>
-        </is>
-      </c>
-      <c r="K98" s="2" t="n">
-        <v>43581.12248842593</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>6</v>
-      </c>
-      <c r="N98" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O98" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="P98" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="Q98" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>3536</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>OŠ Šmartno pod Šmarno goro</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>smartnoB</t>
-        </is>
-      </c>
-      <c r="D99" t="n">
-        <v>8</v>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Book Club Four</t>
-        </is>
-      </c>
-      <c r="G99" t="n">
-        <v>827</v>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>smartnoB23</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>jaz sem smartnoB23</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>I am SmartnoB23</t>
-        </is>
-      </c>
-      <c r="K99" s="2" t="n">
-        <v>43581.13034722222</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>6</v>
-      </c>
-      <c r="N99" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O99" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="P99" t="inlineStr">
-        <is>
-          <t>II</t>
-        </is>
-      </c>
-      <c r="Q99" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>3538</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>OŠ Šmartno pod Šmarno goro</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>smartnoB</t>
-        </is>
-      </c>
-      <c r="D100" t="n">
-        <v>8</v>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Book Club Four</t>
-        </is>
-      </c>
-      <c r="G100" t="n">
-        <v>814</v>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>smartnoB10</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="K100" s="2" t="n">
-        <v>43581.13325231482</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>9</v>
-      </c>
-      <c r="N100" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O100" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="P100" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="Q100" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>3539</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>OŠ Šmartno pod Šmarno goro</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>smartnoB</t>
-        </is>
-      </c>
-      <c r="D101" t="n">
-        <v>8</v>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Book Club Four</t>
-        </is>
-      </c>
-      <c r="G101" t="n">
-        <v>814</v>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>smartnoB10</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="K101" s="2" t="n">
-        <v>43581.13332175926</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>9</v>
-      </c>
-      <c r="N101" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O101" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="P101" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="Q101" t="inlineStr">
         <is>
           <t>O</t>
         </is>
